--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_99.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_99.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33043-d225491-Reviews-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>76</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Candlewood-Suites-OC-Airport-Irvine-West.h659899.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_99.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_99.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,939 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r587206559-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>33043</t>
+  </si>
+  <si>
+    <t>225491</t>
+  </si>
+  <si>
+    <t>587206559</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>This is a standard Candlewood. A bit well worn, but well maintained and very clean. The location is excellent - near many shops and restaurants - and close to the airport. Staff was very friendly. The price was excellent.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r578292992-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>578292992</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>A medical emergency precipitated our stay.</t>
+  </si>
+  <si>
+    <t>Hotel staff were very accommodating to our needs.  Our two small dogs were welcome during our six day stay prior to departing by car to North Carolina.   Highly recommend the Candlewood Suites to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r563804571-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>563804571</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Could be better</t>
+  </si>
+  <si>
+    <t>Nice big parking lot, close to grocery stores. Kitchenette with full fridge (with freezer) in the room with basic pots and stuff and there’s kitchen supplies like toaster you can borrow from the equipment lockers downstairs. Bathroom was clean but could use some fixing. And ours was infested by ants! Kept seeing them on the countertop, on the floor and inside the bath. Room is good size, bed is small - the king was definitely NOT a king. The heater smelled. Luckily we were there only for one night. It was a good deal and not too far from Disneyland (20mins drive) but we won’t be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites Orange County/Airport, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Nice big parking lot, close to grocery stores. Kitchenette with full fridge (with freezer) in the room with basic pots and stuff and there’s kitchen supplies like toaster you can borrow from the equipment lockers downstairs. Bathroom was clean but could use some fixing. And ours was infested by ants! Kept seeing them on the countertop, on the floor and inside the bath. Room is good size, bed is small - the king was definitely NOT a king. The heater smelled. Luckily we were there only for one night. It was a good deal and not too far from Disneyland (20mins drive) but we won’t be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r519708369-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>519708369</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Great value for money and friendly staff</t>
+  </si>
+  <si>
+    <t>I stayed here again recently and was reminded how good a value this hotel provides. It is targeted at long stay customers with a kitchenette and pantry services. Weekly room cleans. Nonetheless, my stay this time was short but just as enjoyable. The staff are really helpful.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r513855859-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>513855859</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rude staff &amp; shady people lurking around </t>
+  </si>
+  <si>
+    <t>The only complaint I have is I received a very rude phone call from a woman with a nasty attitude working front desk accusing me of stomping from the people complaining below me when no one was in my suite during the day at that time. I am here on business and I work majority of morning/day. I will not be talked to or treated like that after a long day as a guest. Clearly the hospitality business is not for her. The check in was super fast and easy. Matthew was working front desk he was so professional such a pleasure to be checked in by him. He was fantastic! Bathroom was nice,spacious, and clean. Tv, fridge, micro &amp; AC worked. Clean carpeting and suite but it had a slight Oder made room smell musty... had to keep AC on high at all times to remove the smell, clean floor in kitchen. Nice kitchenette everything worked and super clean. Clean Utensils and cooking ware were provided in room, was so pleased. Even provides cleaning products and paper towels in suites. Good phone service. Clean bedding and sheets. Wifi worked. Nice size parking lot located at property with plenty of parking. Towels were clean. Big fluffy pillows were so comfortable. Elevator located at property. I'd also suggest security in parking lot, the last night of stay I had a weird man in the parking lot randomly ask me in broad...The only complaint I have is I received a very rude phone call from a woman with a nasty attitude working front desk accusing me of stomping from the people complaining below me when no one was in my suite during the day at that time. I am here on business and I work majority of morning/day. I will not be talked to or treated like that after a long day as a guest. Clearly the hospitality business is not for her. The check in was super fast and easy. Matthew was working front desk he was so professional such a pleasure to be checked in by him. He was fantastic! Bathroom was nice,spacious, and clean. Tv, fridge, micro &amp; AC worked. Clean carpeting and suite but it had a slight Oder made room smell musty... had to keep AC on high at all times to remove the smell, clean floor in kitchen. Nice kitchenette everything worked and super clean. Clean Utensils and cooking ware were provided in room, was so pleased. Even provides cleaning products and paper towels in suites. Good phone service. Clean bedding and sheets. Wifi worked. Nice size parking lot located at property with plenty of parking. Towels were clean. Big fluffy pillows were so comfortable. Elevator located at property. I'd also suggest security in parking lot, the last night of stay I had a weird man in the parking lot randomly ask me in broad daylight where he could buy some drugs. Like Really!? What kind of place is this? I will not be returning here ever again. Did not feel safe. Very disappointed. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County/Airport, responded to this reviewResponded August 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2017</t>
+  </si>
+  <si>
+    <t>The only complaint I have is I received a very rude phone call from a woman with a nasty attitude working front desk accusing me of stomping from the people complaining below me when no one was in my suite during the day at that time. I am here on business and I work majority of morning/day. I will not be talked to or treated like that after a long day as a guest. Clearly the hospitality business is not for her. The check in was super fast and easy. Matthew was working front desk he was so professional such a pleasure to be checked in by him. He was fantastic! Bathroom was nice,spacious, and clean. Tv, fridge, micro &amp; AC worked. Clean carpeting and suite but it had a slight Oder made room smell musty... had to keep AC on high at all times to remove the smell, clean floor in kitchen. Nice kitchenette everything worked and super clean. Clean Utensils and cooking ware were provided in room, was so pleased. Even provides cleaning products and paper towels in suites. Good phone service. Clean bedding and sheets. Wifi worked. Nice size parking lot located at property with plenty of parking. Towels were clean. Big fluffy pillows were so comfortable. Elevator located at property. I'd also suggest security in parking lot, the last night of stay I had a weird man in the parking lot randomly ask me in broad...The only complaint I have is I received a very rude phone call from a woman with a nasty attitude working front desk accusing me of stomping from the people complaining below me when no one was in my suite during the day at that time. I am here on business and I work majority of morning/day. I will not be talked to or treated like that after a long day as a guest. Clearly the hospitality business is not for her. The check in was super fast and easy. Matthew was working front desk he was so professional such a pleasure to be checked in by him. He was fantastic! Bathroom was nice,spacious, and clean. Tv, fridge, micro &amp; AC worked. Clean carpeting and suite but it had a slight Oder made room smell musty... had to keep AC on high at all times to remove the smell, clean floor in kitchen. Nice kitchenette everything worked and super clean. Clean Utensils and cooking ware were provided in room, was so pleased. Even provides cleaning products and paper towels in suites. Good phone service. Clean bedding and sheets. Wifi worked. Nice size parking lot located at property with plenty of parking. Towels were clean. Big fluffy pillows were so comfortable. Elevator located at property. I'd also suggest security in parking lot, the last night of stay I had a weird man in the parking lot randomly ask me in broad daylight where he could buy some drugs. Like Really!? What kind of place is this? I will not be returning here ever again. Did not feel safe. Very disappointed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r513373749-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>513373749</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Very nice place to stay</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for over a month between selling and buying homes. The staff is really friendly and the hotel is nice. The rooms are kind of small but they have all the basic amenities including a small electric range and microwave along with a fridge. Another thing to note is that this place is pet friendly and you can bring in your pet for a small fee. They have a DVD library for renting out movies for free. The parking lot is huge and the location is just perfect. One small grip would be that they don't have a swimming pool, although they have a nice small gym and free use of laundry.Overall this is a great little hotel to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for over a month between selling and buying homes. The staff is really friendly and the hotel is nice. The rooms are kind of small but they have all the basic amenities including a small electric range and microwave along with a fridge. Another thing to note is that this place is pet friendly and you can bring in your pet for a small fee. They have a DVD library for renting out movies for free. The parking lot is huge and the location is just perfect. One small grip would be that they don't have a swimming pool, although they have a nice small gym and free use of laundry.Overall this is a great little hotel to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r468051292-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>468051292</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and the price is right</t>
+  </si>
+  <si>
+    <t>I've stayed here numerous times and it's fine. It has a small kitchenette, good-sized desk/work area, and an average-sized bathroom. The area around the bed is a bit tight. The price is right and it has a good location. Fast food is a five-minute walk and if you have a car, there's a lot of businesses and food a short distance away. Cell service is good on my two carriers (AT&amp;T and VZW). Internet has been fast and reliable for me. There are several places that deliver food to the Candlewood and I've had good experiences with all. There is no shuttle to and from SNA airport, but I use a cab and it's reasonable and quick.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I've stayed here numerous times and it's fine. It has a small kitchenette, good-sized desk/work area, and an average-sized bathroom. The area around the bed is a bit tight. The price is right and it has a good location. Fast food is a five-minute walk and if you have a car, there's a lot of businesses and food a short distance away. Cell service is good on my two carriers (AT&amp;T and VZW). Internet has been fast and reliable for me. There are several places that deliver food to the Candlewood and I've had good experiences with all. There is no shuttle to and from SNA airport, but I use a cab and it's reasonable and quick.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r467604416-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>467604416</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Clean, comfotable and convenient</t>
+  </si>
+  <si>
+    <t>As the title indicates this hotel is clean, comfortable and convenient while also being COST EFFECTIVE, there is great shopping and good restaurants near by but somehow seems quiet and peaceful. The best feature of this hotel is the staff and if you are fortunate enough to deal with a young man at the front desk named John, tell him what you are interested in or what you are looking for  and he will provide you with great suggestions and directions. He was spot on directing us to a number of places my wife was interested in and NAILED EACH AND EVERYONE. I would recommend this hotel for business or pleasure, single or family it covers them all.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>As the title indicates this hotel is clean, comfortable and convenient while also being COST EFFECTIVE, there is great shopping and good restaurants near by but somehow seems quiet and peaceful. The best feature of this hotel is the staff and if you are fortunate enough to deal with a young man at the front desk named John, tell him what you are interested in or what you are looking for  and he will provide you with great suggestions and directions. He was spot on directing us to a number of places my wife was interested in and NAILED EACH AND EVERYONE. I would recommend this hotel for business or pleasure, single or family it covers them all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r465035214-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>465035214</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Super friendly staff!</t>
+  </si>
+  <si>
+    <t>This hotel is more frequented by people needing a small kitchenette for extended stays than for business travels.  however, with that said, the rooms are spacious and quiet, the bed is comfortable and plenty of parking.  i would stay here again if i come back to the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r424123885-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>424123885</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>Wow</t>
+  </si>
+  <si>
+    <t>Had a problem with air conditioner not working.  After a few days of trying different stuff they replaced it. Then the smoke alarm went bad at 1 a.m.  the only reason they all got 4 stars is because of the awesome front desk people.  They were very friendly and more than happy to make u comfortable.  So they may need improvement on maintenance and I felt an apology from management would have been professional as it was very inconvenient to have a floor soaked with water.  We had 2 rooms for a week so they need help as I never saw management,  but as I said there front desk help saves the day and they do the maintenance as they always came to fix everything while running the front desk.  Kudos to the front desk help. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Had a problem with air conditioner not working.  After a few days of trying different stuff they replaced it. Then the smoke alarm went bad at 1 a.m.  the only reason they all got 4 stars is because of the awesome front desk people.  They were very friendly and more than happy to make u comfortable.  So they may need improvement on maintenance and I felt an apology from management would have been professional as it was very inconvenient to have a floor soaked with water.  We had 2 rooms for a week so they need help as I never saw management,  but as I said there front desk help saves the day and they do the maintenance as they always came to fix everything while running the front desk.  Kudos to the front desk help. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r372962888-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>372962888</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>The hotel area was good. Very quiet and clean. Check-in was fast and the reception guy greeted us in such a manner that we felt welcomed and it was a good feeling. Well we had a long drive from Vegas. The room was good enough for the two of us. Clean, well kept and having a kitchenette is a plus point. But the only setback was the curtains. We were unable to draw the curtains. So it was left like that for 3 days. No privacy for sure. Malls and supermarket were just a driving range from the hotel. It was a good location. Easy to travel anywhere. Love it!BBQ area located at the backyard and ample parking space provided which is good. Overall it was a great stay for 3 days. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The hotel area was good. Very quiet and clean. Check-in was fast and the reception guy greeted us in such a manner that we felt welcomed and it was a good feeling. Well we had a long drive from Vegas. The room was good enough for the two of us. Clean, well kept and having a kitchenette is a plus point. But the only setback was the curtains. We were unable to draw the curtains. So it was left like that for 3 days. No privacy for sure. Malls and supermarket were just a driving range from the hotel. It was a good location. Easy to travel anywhere. Love it!BBQ area located at the backyard and ample parking space provided which is good. Overall it was a great stay for 3 days. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r345191096-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>345191096</t>
+  </si>
+  <si>
+    <t>02/05/2016</t>
+  </si>
+  <si>
+    <t>Loved the suite!</t>
+  </si>
+  <si>
+    <t>We stayed for couple nights during our visit to that area and we loved their suites! it feels like home. The kitchenette has all that you need to cook a good meal! The staff are so friendly and professional. We enjoyed our stay at this hotel and it was really worth what we paid for.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r316308003-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>316308003</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Perfect Multi-Day Hotel.</t>
+  </si>
+  <si>
+    <t>My room was a studio suite that had a kitchen with everything except and oven, bed, bathroom, desk/kitchen table, TV, and very comfortable reclining chair.A WalMart Superstore is a short 5 minute drive or a long half-mile walk away. However, the hotel has its own mini market for those on the spot cravings.I took advantage of the free washer/dryer and complimentary laundry detergent. The workout room is in the same room.The hotel is on a major Orange County bus route with 2 buses that have stops right in front of the hotel.The hotel is near the freeway and many restaurants and shopping places are within a short 5-10 minute drive. The staff was excellent and really wanted me to have a great stay...and I did.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>My room was a studio suite that had a kitchen with everything except and oven, bed, bathroom, desk/kitchen table, TV, and very comfortable reclining chair.A WalMart Superstore is a short 5 minute drive or a long half-mile walk away. However, the hotel has its own mini market for those on the spot cravings.I took advantage of the free washer/dryer and complimentary laundry detergent. The workout room is in the same room.The hotel is on a major Orange County bus route with 2 buses that have stops right in front of the hotel.The hotel is near the freeway and many restaurants and shopping places are within a short 5-10 minute drive. The staff was excellent and really wanted me to have a great stay...and I did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r311087497-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>311087497</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Rock and Roll Weekend</t>
+  </si>
+  <si>
+    <t>We went to Irvine for the Cathouse Live event at the ampitheater.  Wanted a close locale to taxi in and out. Room was lovely, fairly new, cold a/c on an extremely hot day, very spacious and comfortable. Only spent 20 bux on the cab ride each way. Would definitely recommend!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r290952554-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>290952554</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>As advertised.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed here twice in last twelve months following attending baseball games at Angels Stadium, and have enjoyed both stays.  Most recent stay on July 19 was most excellent.  Room layout really works great in terms of desk space for laptops, and there are more than ample power outlets.  Not a speck of dust to be found.  Another plus is windows that actually open. Something for those who choose to cook in their rooms to remember.   Cooking fumes tend to permeate hallways otherwise. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r284747468-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>284747468</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>excellent hotel</t>
+  </si>
+  <si>
+    <t>The facilities in this hotel are very good and the staff is excellent, very helpful and they go out of their way to help the guest and  make your stay the best (specially Alrich, Norman and John).  I recommend this hotel very highly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r271908720-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>271908720</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>Loverly homely place for long stay</t>
+  </si>
+  <si>
+    <t>This hotel has a homely feel. At the onset, it looks like a small hotel, but believe me its not small. It has many many rooms. In Fact, they are small suites with a kitchnette attached. I stayed with my mother and requested for two queen beds. The beds were superbly comfortable and huge.The kitchnette is a big plus as for long stay you need the facility to cook small meals. There are plenty of pots and pans for cooking. The only problem is that the electric stove was quite low on heat so we could not cook our indian curries. They have done this for security reasons. The staff is very helpful as they guided us on sightseeing. The free laundry is advantageous and they have a small fitness room too. There is a small shop where you can make tea/coffee for free and buy limited eatables in case of need. They have a huge parking so bringing you own car is not a problem.The room has a big TV, microwave and a decent size refrigerator.The only downside, if we may say, is that the housekeeping is done once a week which is a bit less. Alls aid and done, wonderful place to stay and i would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>This hotel has a homely feel. At the onset, it looks like a small hotel, but believe me its not small. It has many many rooms. In Fact, they are small suites with a kitchnette attached. I stayed with my mother and requested for two queen beds. The beds were superbly comfortable and huge.The kitchnette is a big plus as for long stay you need the facility to cook small meals. There are plenty of pots and pans for cooking. The only problem is that the electric stove was quite low on heat so we could not cook our indian curries. They have done this for security reasons. The staff is very helpful as they guided us on sightseeing. The free laundry is advantageous and they have a small fitness room too. There is a small shop where you can make tea/coffee for free and buy limited eatables in case of need. They have a huge parking so bringing you own car is not a problem.The room has a big TV, microwave and a decent size refrigerator.The only downside, if we may say, is that the housekeeping is done once a week which is a bit less. Alls aid and done, wonderful place to stay and i would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r269664366-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>269664366</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Clean and Basic</t>
+  </si>
+  <si>
+    <t>Needed to visit a local company, took the train so had no car.  This is not a great location if you don’t have a car, there are no dining options close by and the hotel has a very limited selection of pre-packaged foods that you can microwave in your room.  This is a budget hotel and is perfect for someone who just needs a safe, clean and efficient hotel.  There are absolutely no frills, there is not even a lobby to speak of.  The room was perfectly clean, the bed was comfortable.  My room had a weird smell though, couldn’t tell what it was, maybe it just needed a good airing out.  The staff that I encountered were great.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/Airport, responded to this reviewResponded May 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2015</t>
+  </si>
+  <si>
+    <t>Needed to visit a local company, took the train so had no car.  This is not a great location if you don’t have a car, there are no dining options close by and the hotel has a very limited selection of pre-packaged foods that you can microwave in your room.  This is a budget hotel and is perfect for someone who just needs a safe, clean and efficient hotel.  There are absolutely no frills, there is not even a lobby to speak of.  The room was perfectly clean, the bed was comfortable.  My room had a weird smell though, couldn’t tell what it was, maybe it just needed a good airing out.  The staff that I encountered were great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r250412598-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>250412598</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Typical Candlewood</t>
+  </si>
+  <si>
+    <t>The room in this Candlewood was clean and nice size. It had a stove, microwave, and full refrigerator. There is no ice in the bldg so yo must remember to turn the refrigerator ice maker on upon arrival so it can make ice. Good room climate control and ample closet space. The hotel is in a quiet location.  Front desk hours are from 7am-11pm.  Elevator and hallways were clean but didn't have a fresh smell.  The hotel has an exercise room with a variety of machines and weights.  There is no complimentary breakfast and cupboard items are not a bargain plus the cupboard was basically bare when I was there. The complimentary WIFI was easy to connect.  TV channels are limited but do have most ESPN channels and HBO. Bed comfort was OK but you can only get a queen bed in this hotel.  IHG Reward members get nothing but reduced points at this hotel. This hotel will do as a port in a storm but its not a good value for the rate paid. Moreover, there are much better choices at comparable Marriott, etc, hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/Airport, responded to this reviewResponded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2015</t>
+  </si>
+  <si>
+    <t>The room in this Candlewood was clean and nice size. It had a stove, microwave, and full refrigerator. There is no ice in the bldg so yo must remember to turn the refrigerator ice maker on upon arrival so it can make ice. Good room climate control and ample closet space. The hotel is in a quiet location.  Front desk hours are from 7am-11pm.  Elevator and hallways were clean but didn't have a fresh smell.  The hotel has an exercise room with a variety of machines and weights.  There is no complimentary breakfast and cupboard items are not a bargain plus the cupboard was basically bare when I was there. The complimentary WIFI was easy to connect.  TV channels are limited but do have most ESPN channels and HBO. Bed comfort was OK but you can only get a queen bed in this hotel.  IHG Reward members get nothing but reduced points at this hotel. This hotel will do as a port in a storm but its not a good value for the rate paid. Moreover, there are much better choices at comparable Marriott, etc, hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r248466519-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>248466519</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>Value for money.</t>
+  </si>
+  <si>
+    <t>Stayed here for about 80 days and had quite a comfortable stay. Got a good deal on the room rates for an extended stay. Staff was courteous. No complementary breakfast, since they had kitchen in the rooms. Plenty of food places within 2 mile radius, so no complaints. Rooms were quite nice and clean. However some of the guests in smoking rooms went overboard and the hallway used to smell a little of cigarette smoke. Of course, the hotel staff is not to be blamed for it.Will go back for an extended stay, if I visit the Orange County area again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r247105390-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>247105390</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and Convenient</t>
+  </si>
+  <si>
+    <t>The hotel location is quiet, away from any busy road or Freeway noise, and airport noise ends at 11pm and doesn't resume until 7 a.m. so that was no problem either.  It's also located centrally which makes getting to just about any Orange County location pretty easy. We had a Studio Suite, which provided all the basic necessities to settle in for a bit and save some money on eating out every meal (this included dishes and utensils!), and it also had some work space.The "suite" was comfortable but not fancy in any way.  We chose the hotel to be close to central Santa Ana, where we had to make early moring meetings. Getting there by surface streets was an easy 15 minute drive. And since we got a special deal on the suite, it was a good value too.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/Airport, responded to this reviewResponded January 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2015</t>
+  </si>
+  <si>
+    <t>The hotel location is quiet, away from any busy road or Freeway noise, and airport noise ends at 11pm and doesn't resume until 7 a.m. so that was no problem either.  It's also located centrally which makes getting to just about any Orange County location pretty easy. We had a Studio Suite, which provided all the basic necessities to settle in for a bit and save some money on eating out every meal (this included dishes and utensils!), and it also had some work space.The "suite" was comfortable but not fancy in any way.  We chose the hotel to be close to central Santa Ana, where we had to make early moring meetings. Getting there by surface streets was an easy 15 minute drive. And since we got a special deal on the suite, it was a good value too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r225513153-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>225513153</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Keep your expectations in check and you will have no disappointments</t>
+  </si>
+  <si>
+    <t>I have stayed at somewhere between 7-9 Candlewood properties and they are about as identical and uneventful in consistency as I have seen from a small brand within a hotel chain.  Where I would give this one high marks is on location (quiet and perfect for SNA/Irvine/South Coast Plaza), ease of parking and convenience and just completing a moderate renovation.  The real problem is with the chain, Intercontinental Hotels.  They have gotten greedy and have made it much more difficult to achieve loyalty points (Rewards Club), and very lame promotional offers compared to other hotel companies.  For example, you could stay in a decent Courtyard or Hampton Inn for the same redemption level as this place.  They are not relatable hotel types.  I asked for a late check out on a weekend that was DEAD, I was given until 1 pm.  It's another example of the lack of aggressive hospitality that you see more at other chains.  They need to do better or sell the chain to a better lodging company, which I think will happen next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/Airport, responded to this reviewResponded September 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at somewhere between 7-9 Candlewood properties and they are about as identical and uneventful in consistency as I have seen from a small brand within a hotel chain.  Where I would give this one high marks is on location (quiet and perfect for SNA/Irvine/South Coast Plaza), ease of parking and convenience and just completing a moderate renovation.  The real problem is with the chain, Intercontinental Hotels.  They have gotten greedy and have made it much more difficult to achieve loyalty points (Rewards Club), and very lame promotional offers compared to other hotel companies.  For example, you could stay in a decent Courtyard or Hampton Inn for the same redemption level as this place.  They are not relatable hotel types.  I asked for a late check out on a weekend that was DEAD, I was given until 1 pm.  It's another example of the lack of aggressive hospitality that you see more at other chains.  They need to do better or sell the chain to a better lodging company, which I think will happen next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r224878107-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>224878107</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Solid on the high end of 3 star</t>
+  </si>
+  <si>
+    <t>if you are looking for a good clean room only this is a good alternative.  No pool no food.  Have to walk about a mile and a half to get to any food.  Clean and very comfortable beds nice flatscreen in rooms.  Rooms have kitchens as well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r223313048-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>223313048</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>A cool place to stay!</t>
+  </si>
+  <si>
+    <t>This was a really nice stay overall I have to say. I see why it's rated highly. The grounds were well kept and felt pretty welcoming. Parking was no problem as the lot was spacious. Checking in was fairly easy as our reservations were already made online. We only stayed for one night but everything was comfortable including our queen size bed. The fridge and sink area were clean along with the very spacious desk which we made good use of. The tv was pretty awesome, we brought a console to make good use of it (movies, games etc)! One of the things that we missed out on and I think others have too is the shade curtains. I was trying to figure out trying to close them to block the sun in the morning and didn't realize there was a second track (closest to the window). Granted, I was half asleep hahaha. Lots of things to do nearby too! Anyway, I give 4 points because, to me going into the lobby and into the hotel, it was really stuffy and had a slightly odd smell. Just kinda seemed like there was no airflow through the hallways etc like some doors or windows needed to be opened. I also found a hair in my tub and that type of thing grosses me out. So all in all would I stay again? Most definitely, it was worth the value and the...This was a really nice stay overall I have to say. I see why it's rated highly. The grounds were well kept and felt pretty welcoming. Parking was no problem as the lot was spacious. Checking in was fairly easy as our reservations were already made online. We only stayed for one night but everything was comfortable including our queen size bed. The fridge and sink area were clean along with the very spacious desk which we made good use of. The tv was pretty awesome, we brought a console to make good use of it (movies, games etc)! One of the things that we missed out on and I think others have too is the shade curtains. I was trying to figure out trying to close them to block the sun in the morning and didn't realize there was a second track (closest to the window). Granted, I was half asleep hahaha. Lots of things to do nearby too! Anyway, I give 4 points because, to me going into the lobby and into the hotel, it was really stuffy and had a slightly odd smell. Just kinda seemed like there was no airflow through the hallways etc like some doors or windows needed to be opened. I also found a hair in my tub and that type of thing grosses me out. So all in all would I stay again? Most definitely, it was worth the value and the guys at the front desk were very nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a really nice stay overall I have to say. I see why it's rated highly. The grounds were well kept and felt pretty welcoming. Parking was no problem as the lot was spacious. Checking in was fairly easy as our reservations were already made online. We only stayed for one night but everything was comfortable including our queen size bed. The fridge and sink area were clean along with the very spacious desk which we made good use of. The tv was pretty awesome, we brought a console to make good use of it (movies, games etc)! One of the things that we missed out on and I think others have too is the shade curtains. I was trying to figure out trying to close them to block the sun in the morning and didn't realize there was a second track (closest to the window). Granted, I was half asleep hahaha. Lots of things to do nearby too! Anyway, I give 4 points because, to me going into the lobby and into the hotel, it was really stuffy and had a slightly odd smell. Just kinda seemed like there was no airflow through the hallways etc like some doors or windows needed to be opened. I also found a hair in my tub and that type of thing grosses me out. So all in all would I stay again? Most definitely, it was worth the value and the...This was a really nice stay overall I have to say. I see why it's rated highly. The grounds were well kept and felt pretty welcoming. Parking was no problem as the lot was spacious. Checking in was fairly easy as our reservations were already made online. We only stayed for one night but everything was comfortable including our queen size bed. The fridge and sink area were clean along with the very spacious desk which we made good use of. The tv was pretty awesome, we brought a console to make good use of it (movies, games etc)! One of the things that we missed out on and I think others have too is the shade curtains. I was trying to figure out trying to close them to block the sun in the morning and didn't realize there was a second track (closest to the window). Granted, I was half asleep hahaha. Lots of things to do nearby too! Anyway, I give 4 points because, to me going into the lobby and into the hotel, it was really stuffy and had a slightly odd smell. Just kinda seemed like there was no airflow through the hallways etc like some doors or windows needed to be opened. I also found a hair in my tub and that type of thing grosses me out. So all in all would I stay again? Most definitely, it was worth the value and the guys at the front desk were very nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r201301918-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>201301918</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel/Great Location</t>
+  </si>
+  <si>
+    <t>Stayed here on a business trip for 3 weeks.  It was located in a central location to many shopping areas, restaurants and freeways.  The staff was very attentive, including the cleaning crew.  They only clean/exchange towels and bedding once a week so if staying for an extended time with family, you will need to take your towels to the front desk where they exchange them for you.  The kitchenette in the suite was very well maintained and included just about everything I needed to save some money by eating in.  The 24 hour FREE laundry was a definite plus and they have the "Candlewood Cupboard" where you can purchase snacks, soda, water and get free coffee.  I would definitely stay here again and would recommend this hotel for those traveling on business.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Stayed here on a business trip for 3 weeks.  It was located in a central location to many shopping areas, restaurants and freeways.  The staff was very attentive, including the cleaning crew.  They only clean/exchange towels and bedding once a week so if staying for an extended time with family, you will need to take your towels to the front desk where they exchange them for you.  The kitchenette in the suite was very well maintained and included just about everything I needed to save some money by eating in.  The 24 hour FREE laundry was a definite plus and they have the "Candlewood Cupboard" where you can purchase snacks, soda, water and get free coffee.  I would definitely stay here again and would recommend this hotel for those traveling on business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r198888140-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>198888140</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for five (5) weeks.Pros:24hr free laundry24hr free work out gym24hr mini convenience storeNear to the district (watch movies, groceries)Near WalmartFriendly StaffCons:Room service is only every SaturdayNo restaurants or breakfastNo restaurants nearby (Panda express is 0.5 miles away)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r196625059-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>196625059</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>Punished for using Hotels.com PAID Full Price!</t>
+  </si>
+  <si>
+    <t>The hotel is clean staff was a pleasant liar.  He told us they did not HAVE to give us two beds because we booked through Hotels.com.  We got no break on price anyway however the person in front of me paid 79.  It was deceptive and not how alleged guests expect to be treaded.  Horrible experienceThe claim to be full was a lie the parking lot is empty and the room down the hall had either a dead guest or was empty because the clock alarm was blaring for hoursIf all the hotels are as unprofessional as this I will avoid from now on.  I am glad your company didn't build in my community it would have been an embarrassment to have our visitors treated so unfairly.We paid the FULL price according get to YOUR website Very shabby shabby service.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is clean staff was a pleasant liar.  He told us they did not HAVE to give us two beds because we booked through Hotels.com.  We got no break on price anyway however the person in front of me paid 79.  It was deceptive and not how alleged guests expect to be treaded.  Horrible experienceThe claim to be full was a lie the parking lot is empty and the room down the hall had either a dead guest or was empty because the clock alarm was blaring for hoursIf all the hotels are as unprofessional as this I will avoid from now on.  I am glad your company didn't build in my community it would have been an embarrassment to have our visitors treated so unfairly.We paid the FULL price according get to YOUR website Very shabby shabby service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r184317173-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>184317173</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>Nice area, Clean, good location</t>
+  </si>
+  <si>
+    <t>The staff at the front desk was very friendly at check-in and let us check-in early since we got to the hotel a little bit early from LAX.Reason for 3 - stars: We stayed from a Wednesday --&gt; Monday and not even ONCE did room service show up to clean the room and restock towels etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Alrichj, Front Office Manager at Candlewood Suites Orange County/Airport, responded to this reviewResponded December 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2013</t>
+  </si>
+  <si>
+    <t>The staff at the front desk was very friendly at check-in and let us check-in early since we got to the hotel a little bit early from LAX.Reason for 3 - stars: We stayed from a Wednesday --&gt; Monday and not even ONCE did room service show up to clean the room and restock towels etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r164132399-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>164132399</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel for Long-Term Stay</t>
+  </si>
+  <si>
+    <t>Good points:  The hotel has free wi-fi internet, which was inconsistent in speed but generally ok, free &amp; safe parking, a decent gym, self-service laundry (inexpensive), free water, self-service pantry area (pay for snacks) &amp; good size desk as well as kitchen area.  You can also rent DVD's for free at the front desk.  The hotel is only 3 minutes away from Walmart &amp; 5 minutes away from The District (which has Target, Costco, Whole Foods &amp; other stores, restaurants &amp; a cinema).  Our room faced the parking lot but we didn't have any trouble with noise from the 2 main streets facing us.Bad points:  Unfortunately, the luggage was self-service as well although luggage carts are available.  Room cleaning is also done only once a week, which we didn't mind because we did lots of shopping &amp; didn't have a chance to store &amp; lock everything away daily; the rooms were clean anyways &amp; this allowed for environmental use of sheets &amp; towels (although not all visitors might appreciate this).  Our room's bath tub was also clogged initially &amp; the water felt slippery but both problems went away (repairman fixed the clog &amp; water no longer left "a layer" on hands/body).MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Good points:  The hotel has free wi-fi internet, which was inconsistent in speed but generally ok, free &amp; safe parking, a decent gym, self-service laundry (inexpensive), free water, self-service pantry area (pay for snacks) &amp; good size desk as well as kitchen area.  You can also rent DVD's for free at the front desk.  The hotel is only 3 minutes away from Walmart &amp; 5 minutes away from The District (which has Target, Costco, Whole Foods &amp; other stores, restaurants &amp; a cinema).  Our room faced the parking lot but we didn't have any trouble with noise from the 2 main streets facing us.Bad points:  Unfortunately, the luggage was self-service as well although luggage carts are available.  Room cleaning is also done only once a week, which we didn't mind because we did lots of shopping &amp; didn't have a chance to store &amp; lock everything away daily; the rooms were clean anyways &amp; this allowed for environmental use of sheets &amp; towels (although not all visitors might appreciate this).  Our room's bath tub was also clogged initially &amp; the water felt slippery but both problems went away (repairman fixed the clog &amp; water no longer left "a layer" on hands/body).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r162539898-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>162539898</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>New and clean! Only one flaw.</t>
+  </si>
+  <si>
+    <t>This is my first time staying at a Candlewood Suites and this place is pretty new so I had no complaints at all.  Comfy beds, large working space, fridge and kitchen facilities, plenty of outlets, large bathroom, all the things I look for when I stay somewhere.  You don't get a free breakfast and although there is a little "store" for snacks, they didn't have a real selection of breakfast items.  That was the only downside for me.  That, and they did not have actual coffee creamer - just the powdered stuff, but they told me they ran out.  Otherwise, very nice!  Oh, and there is a laundry facility there as well which is great for an extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>This is my first time staying at a Candlewood Suites and this place is pretty new so I had no complaints at all.  Comfy beds, large working space, fridge and kitchen facilities, plenty of outlets, large bathroom, all the things I look for when I stay somewhere.  You don't get a free breakfast and although there is a little "store" for snacks, they didn't have a real selection of breakfast items.  That was the only downside for me.  That, and they did not have actual coffee creamer - just the powdered stuff, but they told me they ran out.  Otherwise, very nice!  Oh, and there is a laundry facility there as well which is great for an extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r154305591-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>154305591</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>As good if not better</t>
+  </si>
+  <si>
+    <t>The last time I visited the US was 8 years ago and this time, Candlewood completely impressed me again. Their unconventional approaches to deliver value to customers show that they have in depth understanding of the hospitality industry. Many features in Candlewood is not found anywhere else by any hotel in the world.
+First, the cleanliness is simply incredible! I can never understand how a hotel room become so extremely clean that it looks like newly renovated. I was upgraded to a suite room room and the bed and pillows were so good, I felt like I was floating. It really help me to overcome my pan-pacific flight and jet lag.
+The kitchen which is not mini had ceramic hob, more than ample cutleries, coffee machine, take away coffee cups, huge microwave and refrigerator, coffee &amp; decaf and the pop-corn was a delightful addition.
+There were flat screen TV in the living room and the bed room. All the furniture were ultra, clean of high quality and seemingly new. The utility table was large and well positioned, chairs and sofas was of a high standard better than many 5 stars hotels. Wardrobes were well positioned storage.
+There was a reasonably good gym, mini food outlet and laundry room with good and free equipment.
+Within 1 km, you will find Walmart, Taco Bell and a little further Cosco, AMC etc etc.
+To get all these at 85 USD, it seems almost...The last time I visited the US was 8 years ago and this time, Candlewood completely impressed me again. Their unconventional approaches to deliver value to customers show that they have in depth understanding of the hospitality industry. Many features in Candlewood is not found anywhere else by any hotel in the world.First, the cleanliness is simply incredible! I can never understand how a hotel room become so extremely clean that it looks like newly renovated. I was upgraded to a suite room room and the bed and pillows were so good, I felt like I was floating. It really help me to overcome my pan-pacific flight and jet lag.The kitchen which is not mini had ceramic hob, more than ample cutleries, coffee machine, take away coffee cups, huge microwave and refrigerator, coffee &amp; decaf and the pop-corn was a delightful addition.There were flat screen TV in the living room and the bed room. All the furniture were ultra, clean of high quality and seemingly new. The utility table was large and well positioned, chairs and sofas was of a high standard better than many 5 stars hotels. Wardrobes were well positioned storage.There was a reasonably good gym, mini food outlet and laundry room with good and free equipment.Within 1 km, you will find Walmart, Taco Bell and a little further Cosco, AMC etc etc.To get all these at 85 USD, it seems almost illegal! I am a total fan of Candlewood, it has everything I need and none of the stuff I don't need.South LA is not well served by public transport except Disneyland area so it can be quite expensive to get to and from the hotel if you are not driving.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>The last time I visited the US was 8 years ago and this time, Candlewood completely impressed me again. Their unconventional approaches to deliver value to customers show that they have in depth understanding of the hospitality industry. Many features in Candlewood is not found anywhere else by any hotel in the world.
+First, the cleanliness is simply incredible! I can never understand how a hotel room become so extremely clean that it looks like newly renovated. I was upgraded to a suite room room and the bed and pillows were so good, I felt like I was floating. It really help me to overcome my pan-pacific flight and jet lag.
+The kitchen which is not mini had ceramic hob, more than ample cutleries, coffee machine, take away coffee cups, huge microwave and refrigerator, coffee &amp; decaf and the pop-corn was a delightful addition.
+There were flat screen TV in the living room and the bed room. All the furniture were ultra, clean of high quality and seemingly new. The utility table was large and well positioned, chairs and sofas was of a high standard better than many 5 stars hotels. Wardrobes were well positioned storage.
+There was a reasonably good gym, mini food outlet and laundry room with good and free equipment.
+Within 1 km, you will find Walmart, Taco Bell and a little further Cosco, AMC etc etc.
+To get all these at 85 USD, it seems almost...The last time I visited the US was 8 years ago and this time, Candlewood completely impressed me again. Their unconventional approaches to deliver value to customers show that they have in depth understanding of the hospitality industry. Many features in Candlewood is not found anywhere else by any hotel in the world.First, the cleanliness is simply incredible! I can never understand how a hotel room become so extremely clean that it looks like newly renovated. I was upgraded to a suite room room and the bed and pillows were so good, I felt like I was floating. It really help me to overcome my pan-pacific flight and jet lag.The kitchen which is not mini had ceramic hob, more than ample cutleries, coffee machine, take away coffee cups, huge microwave and refrigerator, coffee &amp; decaf and the pop-corn was a delightful addition.There were flat screen TV in the living room and the bed room. All the furniture were ultra, clean of high quality and seemingly new. The utility table was large and well positioned, chairs and sofas was of a high standard better than many 5 stars hotels. Wardrobes were well positioned storage.There was a reasonably good gym, mini food outlet and laundry room with good and free equipment.Within 1 km, you will find Walmart, Taco Bell and a little further Cosco, AMC etc etc.To get all these at 85 USD, it seems almost illegal! I am a total fan of Candlewood, it has everything I need and none of the stuff I don't need.South LA is not well served by public transport except Disneyland area so it can be quite expensive to get to and from the hotel if you are not driving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r152574183-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>152574183</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Great Property</t>
+  </si>
+  <si>
+    <t>This hotel meets and exceeds expectations. Comfortable rooms, bedding, nice amenities. Safe location close to dining and shopping options. Very friendly staff. This property is a very good value in Orange County.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r144679518-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>144679518</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Unbelievable last-minute hotel</t>
+  </si>
+  <si>
+    <t>Had a reservation with another hotel which I admittedly messed up (booked the wrong date, and they were sold out for the correct night).
+Booked with Candlewood Suites OC/Airport at 4pm, and arrived 45 minutes later to a welcoming staff and clean room.
+The property appears to have been recently remodeled, and the resulting decor is stunning.  From a business traveler's perspective, there's nothing better than pulling up to a clean, well-lit open parking lot with ample space.
+I was offered a soda as soon as I checked in, and given loads of step-by-step information on how to make my stay more enjoyable.
+The rooms are beautiful and feature a fully-stocked kitchen with long work/dining table, large flat-screen TVs in the living area and bedroom, modern furnishings and decor, and a calming overall ambiance.
+Wi-Fi was free and lightning fast, HVAC was built-in (no ugly units hanging from the walls), and there was a fitness center/convenience store/laundry facility on site.
+Downsides?  The hotel wasn't always a non-smoking property, and my room smelled faintly of stale cigarette smoke.  If possible, ask for a room on a floor which was always non-smoking.  Availability during my last-minute trip was limited, so I took whatever I received.
+Nothing is really within walking distance, and there's an eerie abandoned military base right across the street.  I never felt unsafe, though, and with a car, the location is just fine.
+For the value, I would absolutely...Had a reservation with another hotel which I admittedly messed up (booked the wrong date, and they were sold out for the correct night).Booked with Candlewood Suites OC/Airport at 4pm, and arrived 45 minutes later to a welcoming staff and clean room.The property appears to have been recently remodeled, and the resulting decor is stunning.  From a business traveler's perspective, there's nothing better than pulling up to a clean, well-lit open parking lot with ample space.I was offered a soda as soon as I checked in, and given loads of step-by-step information on how to make my stay more enjoyable.The rooms are beautiful and feature a fully-stocked kitchen with long work/dining table, large flat-screen TVs in the living area and bedroom, modern furnishings and decor, and a calming overall ambiance.Wi-Fi was free and lightning fast, HVAC was built-in (no ugly units hanging from the walls), and there was a fitness center/convenience store/laundry facility on site.Downsides?  The hotel wasn't always a non-smoking property, and my room smelled faintly of stale cigarette smoke.  If possible, ask for a room on a floor which was always non-smoking.  Availability during my last-minute trip was limited, so I took whatever I received.Nothing is really within walking distance, and there's an eerie abandoned military base right across the street.  I never felt unsafe, though, and with a car, the location is just fine.For the value, I would absolutely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Had a reservation with another hotel which I admittedly messed up (booked the wrong date, and they were sold out for the correct night).
+Booked with Candlewood Suites OC/Airport at 4pm, and arrived 45 minutes later to a welcoming staff and clean room.
+The property appears to have been recently remodeled, and the resulting decor is stunning.  From a business traveler's perspective, there's nothing better than pulling up to a clean, well-lit open parking lot with ample space.
+I was offered a soda as soon as I checked in, and given loads of step-by-step information on how to make my stay more enjoyable.
+The rooms are beautiful and feature a fully-stocked kitchen with long work/dining table, large flat-screen TVs in the living area and bedroom, modern furnishings and decor, and a calming overall ambiance.
+Wi-Fi was free and lightning fast, HVAC was built-in (no ugly units hanging from the walls), and there was a fitness center/convenience store/laundry facility on site.
+Downsides?  The hotel wasn't always a non-smoking property, and my room smelled faintly of stale cigarette smoke.  If possible, ask for a room on a floor which was always non-smoking.  Availability during my last-minute trip was limited, so I took whatever I received.
+Nothing is really within walking distance, and there's an eerie abandoned military base right across the street.  I never felt unsafe, though, and with a car, the location is just fine.
+For the value, I would absolutely...Had a reservation with another hotel which I admittedly messed up (booked the wrong date, and they were sold out for the correct night).Booked with Candlewood Suites OC/Airport at 4pm, and arrived 45 minutes later to a welcoming staff and clean room.The property appears to have been recently remodeled, and the resulting decor is stunning.  From a business traveler's perspective, there's nothing better than pulling up to a clean, well-lit open parking lot with ample space.I was offered a soda as soon as I checked in, and given loads of step-by-step information on how to make my stay more enjoyable.The rooms are beautiful and feature a fully-stocked kitchen with long work/dining table, large flat-screen TVs in the living area and bedroom, modern furnishings and decor, and a calming overall ambiance.Wi-Fi was free and lightning fast, HVAC was built-in (no ugly units hanging from the walls), and there was a fitness center/convenience store/laundry facility on site.Downsides?  The hotel wasn't always a non-smoking property, and my room smelled faintly of stale cigarette smoke.  If possible, ask for a room on a floor which was always non-smoking.  Availability during my last-minute trip was limited, so I took whatever I received.Nothing is really within walking distance, and there's an eerie abandoned military base right across the street.  I never felt unsafe, though, and with a car, the location is just fine.For the value, I would absolutely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r139029359-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>139029359</t>
+  </si>
+  <si>
+    <t>08/31/2012</t>
+  </si>
+  <si>
+    <t>THIS PLACE IS AMAZING!!!</t>
+  </si>
+  <si>
+    <t>After a horrific experience in Escondido, this place MORE than made up for it.  They are incredibly pet friendly, was clean, spacious, accommodating, friendly.  They are also located less than .25 miles from The District; a great dining and shopping experience.  We'll definitely be back and refer this hotel.  Our only issue was an ant infestation in the parking lot that spread to our car.  KUDOS to Candlewood Suites!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r131930114-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>131930114</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>We stayed two nights, very clean, friendly staff, location is good for trips to beach areas Newport, Hunington area. Shopping close with numerous restaurants. Great price . Will use again .</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r131102872-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>131102872</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>Good hotel with new interior</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a day on business. It is at good location, close to John Wayne airport and near a major shopping mall with many restaurants, shops and grocery store.The room was very clean and has been recently renovated. The person at the reception was very helpful and courteous.The Holiday Inn group must have hired a real good interior designer a couple of years ago and it shows because furniture, arrangement are really good in many of these chain-hotels now and not as bland as many other efficiency type hotels. I personally like the interior, it is above standard. The efficiency suite was well equipped, great value for the price The hotel has no pool, but laundry, fitness etc.and the A/C was one of the more noisy types, not a big problem in Cal though, but only 4 stars for that.It is definitely great for a longer stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a day on business. It is at good location, close to John Wayne airport and near a major shopping mall with many restaurants, shops and grocery store.The room was very clean and has been recently renovated. The person at the reception was very helpful and courteous.The Holiday Inn group must have hired a real good interior designer a couple of years ago and it shows because furniture, arrangement are really good in many of these chain-hotels now and not as bland as many other efficiency type hotels. I personally like the interior, it is above standard. The efficiency suite was well equipped, great value for the price The hotel has no pool, but laundry, fitness etc.and the A/C was one of the more noisy types, not a big problem in Cal though, but only 4 stars for that.It is definitely great for a longer stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r122656826-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>122656826</t>
+  </si>
+  <si>
+    <t>01/06/2012</t>
+  </si>
+  <si>
+    <t>New rooms are awesome!</t>
+  </si>
+  <si>
+    <t>I always stay at Candlewood, the suites are like mini apartments. They are currently going through a renovation, and I got one of the rooms that were already done. The room is beautiful! Contemporary and very stylish! As always, the staff is very friendly, and it was a pleasant stay.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r121188278-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>121188278</t>
+  </si>
+  <si>
+    <t>11/28/2011</t>
+  </si>
+  <si>
+    <t>Best place for extended stay in the area</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel 4 times. This is the best place for extended stay in the area.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r118463977-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>118463977</t>
+  </si>
+  <si>
+    <t>09/22/2011</t>
+  </si>
+  <si>
+    <t>Good clean hotel</t>
+  </si>
+  <si>
+    <t>I prefer to have the ability to cook my meals when I travel because I have food allergies and Candlewood properties give me that option.  I did get an upgraded room to a 1 bedroom suite so my sleeping area was separate from the sitting/kitchen area.  The property was clean and the staff was pleasant.  It is also only about a mile from a good shopping district with lots of restaurants if you prefer to eat out.  There is also a Whole Foods and Alberstons nearby.  It is minutes from John Wayne airport, which was pretty nice for my early morning flight. The do have an onsite exercise room and free use of washers and dryers which would come in quite handy for a longer trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I prefer to have the ability to cook my meals when I travel because I have food allergies and Candlewood properties give me that option.  I did get an upgraded room to a 1 bedroom suite so my sleeping area was separate from the sitting/kitchen area.  The property was clean and the staff was pleasant.  It is also only about a mile from a good shopping district with lots of restaurants if you prefer to eat out.  There is also a Whole Foods and Alberstons nearby.  It is minutes from John Wayne airport, which was pretty nice for my early morning flight. The do have an onsite exercise room and free use of washers and dryers which would come in quite handy for a longer trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r114996521-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>114996521</t>
+  </si>
+  <si>
+    <t>07/03/2011</t>
+  </si>
+  <si>
+    <t>Very nice surprise!</t>
+  </si>
+  <si>
+    <t>We had to find a local hotel that accepted pets since our house was being tented for termites and we were very pleasantly surprised wtih the Candlewood Suites. It was half the cost of the Residence Inn down the street but had all the same amentities except for breakfast, but for the price, who cares! It was very clean and though we did not use the weight room, we thought it was awesome that it was attached to the laundry room so you can workout while you do a load of laundry, for free!</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r58949732-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>58949732</t>
+  </si>
+  <si>
+    <t>03/18/2010</t>
+  </si>
+  <si>
+    <t>Ok Ok types to stay</t>
+  </si>
+  <si>
+    <t>not really superb but still fine. service is good and in convinient place and near to all site seeing places</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r14919240-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>14919240</t>
+  </si>
+  <si>
+    <t>04/09/2008</t>
+  </si>
+  <si>
+    <t>It's worth it for extended stay</t>
+  </si>
+  <si>
+    <t>We spent 5 weeks here (my husband and our 1yr old son).  The sofa has some stain on it and I found a sock behind the tv cabinet.  They changed the sofa cushion cover on the same day.  As others indicated, this is extended stay so room cleaning is once a week which is not sufficient when you have a toddler.  We requested daily vacuum and they did it on altenate day.  Sometimes we borrowed vacuum from them at night but there's a night where it was unavailable. Rooms have a recliner, sofa bed, full sized refrigerator, microwave, 2 burner range, sink and dishwasher, big bathroom. Utensils, cookware and dishes are provided. There is a gym and free laundry too. Staffs are friendly and helpful except for one serious grumpy man who makes you feel uncomfortable asking for detergent or a vacuum.Downside: No breakfast, no pool, no daily housekeeping, no restaurant, no room service, need to ask for dish detergent or soap.  Coffee and pop corn only provided once when u checked in.  Not a walking distance to fast food restaurant and grocery store.MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent 5 weeks here (my husband and our 1yr old son).  The sofa has some stain on it and I found a sock behind the tv cabinet.  They changed the sofa cushion cover on the same day.  As others indicated, this is extended stay so room cleaning is once a week which is not sufficient when you have a toddler.  We requested daily vacuum and they did it on altenate day.  Sometimes we borrowed vacuum from them at night but there's a night where it was unavailable. Rooms have a recliner, sofa bed, full sized refrigerator, microwave, 2 burner range, sink and dishwasher, big bathroom. Utensils, cookware and dishes are provided. There is a gym and free laundry too. Staffs are friendly and helpful except for one serious grumpy man who makes you feel uncomfortable asking for detergent or a vacuum.Downside: No breakfast, no pool, no daily housekeeping, no restaurant, no room service, need to ask for dish detergent or soap.  Coffee and pop corn only provided once when u checked in.  Not a walking distance to fast food restaurant and grocery store.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r8211736-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>8211736</t>
+  </si>
+  <si>
+    <t>07/20/2007</t>
+  </si>
+  <si>
+    <t>I spent 9 weeks here (May-June-July 07) on an extended business assignment.  The hotel was clean and quiet and was ideally located for my work.  As others indicated, this is extended stay so room cleaning is once a week.  Rooms have a full sized refrigerator, microwave, 2 burner range, sink and dishwasher.  Utensiles, cookware and dishes are provided.  There is a free laundry on site which is a real bonus for extended stay.  The drawbacks are there are no restaurants within a mile or two so if you're not cooking in the room it's a little drive.  Given the southern California climate the real shortcoming was not having a pool.  That would have made the weekends a little more enjoyable while away from home.  In all a very good value if your travel has you on an extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>I spent 9 weeks here (May-June-July 07) on an extended business assignment.  The hotel was clean and quiet and was ideally located for my work.  As others indicated, this is extended stay so room cleaning is once a week.  Rooms have a full sized refrigerator, microwave, 2 burner range, sink and dishwasher.  Utensiles, cookware and dishes are provided.  There is a free laundry on site which is a real bonus for extended stay.  The drawbacks are there are no restaurants within a mile or two so if you're not cooking in the room it's a little drive.  Given the southern California climate the real shortcoming was not having a pool.  That would have made the weekends a little more enjoyable while away from home.  In all a very good value if your travel has you on an extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r3841642-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>3841642</t>
+  </si>
+  <si>
+    <t>09/03/2005</t>
+  </si>
+  <si>
+    <t>good if you know what to expect from extended stay</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel a number of times this year, always one night at a time (even though it's designed more for extended stays).
+I've stayed at other extended stays hotels in the past (like Studio Plus, etc), and this is roughly similar.  The front desk is not open in the middle of the night (tho there is provision for check in or check out then), the linens are only changed once a week (or once per stay if you stay less than a week), there is a kitchenette (including microwave, full size refrigerator, dishwasher, and stovetop ranges, and but no conventional oven) and a small pantry of food for sale (honor system) but no "breakfast" (other than what you may put together from the pantry).  On some stays, however, I find the pantry to be poorly stocked.
+The rooms are clean and reasonably spacious but purely functional in appearance.  There is a VCR in every room and some (older) movies available for free rent at the front desk.  The TV has most of the local channels (though on shuffled channel numbers) and HBO, HBO Plus, and HBO Signature (the latter two from East Coast feeds!).
+It's a convenient location just a couple minutes from the 55 freeway, and a nice spacious parking lot in front.  Only business parks immediately around, tho, so it's a short drive (in any of several directions) before you start finding restaurants.
+The front...I've stayed at this hotel a number of times this year, always one night at a time (even though it's designed more for extended stays).I've stayed at other extended stays hotels in the past (like Studio Plus, etc), and this is roughly similar.  The front desk is not open in the middle of the night (tho there is provision for check in or check out then), the linens are only changed once a week (or once per stay if you stay less than a week), there is a kitchenette (including microwave, full size refrigerator, dishwasher, and stovetop ranges, and but no conventional oven) and a small pantry of food for sale (honor system) but no "breakfast" (other than what you may put together from the pantry).  On some stays, however, I find the pantry to be poorly stocked.The rooms are clean and reasonably spacious but purely functional in appearance.  There is a VCR in every room and some (older) movies available for free rent at the front desk.  The TV has most of the local channels (though on shuffled channel numbers) and HBO, HBO Plus, and HBO Signature (the latter two from East Coast feeds!).It's a convenient location just a couple minutes from the 55 freeway, and a nice spacious parking lot in front.  Only business parks immediately around, tho, so it's a short drive (in any of several directions) before you start finding restaurants.The front desk staff are courteous, but all too often they're not there when you walk up because they're dealing with a guest in a room somewhere else in the hotel.  So sometimes you have to wait 5 or 10 minutes until they come back.  Also, check in and check out can be slow during busy morning or evening periods since they can only do one at a time.One very nice feature is free washers and dryers (you can pay 75c for a box of detergent or you can bring your own if you want).Internet is free via ethernet cable (I bring my own, I'm not sure if they supply one on request), but you have to re-login every time you wake up  your laptop, and the pesky toolbar it brings up sometimes messes with the size of your browser window.(If you've stayed at other Candlewoods before, this is very similar.  I'd rate this a bit better run than a couple of the other Candlewoods I've stayed at.)Be aware that because some guests extend stays unexpectedly and the hotel is often fully booked, there's more chance that they'll "walk" you (send you to an alternate area hotel at no charge to you for the night) at this hotel than at most others in the area.  If you want to save money, that can be good, but if you wanted a specific feature of this hotel that night, it can be less good.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel a number of times this year, always one night at a time (even though it's designed more for extended stays).
+I've stayed at other extended stays hotels in the past (like Studio Plus, etc), and this is roughly similar.  The front desk is not open in the middle of the night (tho there is provision for check in or check out then), the linens are only changed once a week (or once per stay if you stay less than a week), there is a kitchenette (including microwave, full size refrigerator, dishwasher, and stovetop ranges, and but no conventional oven) and a small pantry of food for sale (honor system) but no "breakfast" (other than what you may put together from the pantry).  On some stays, however, I find the pantry to be poorly stocked.
+The rooms are clean and reasonably spacious but purely functional in appearance.  There is a VCR in every room and some (older) movies available for free rent at the front desk.  The TV has most of the local channels (though on shuffled channel numbers) and HBO, HBO Plus, and HBO Signature (the latter two from East Coast feeds!).
+It's a convenient location just a couple minutes from the 55 freeway, and a nice spacious parking lot in front.  Only business parks immediately around, tho, so it's a short drive (in any of several directions) before you start finding restaurants.
+The front...I've stayed at this hotel a number of times this year, always one night at a time (even though it's designed more for extended stays).I've stayed at other extended stays hotels in the past (like Studio Plus, etc), and this is roughly similar.  The front desk is not open in the middle of the night (tho there is provision for check in or check out then), the linens are only changed once a week (or once per stay if you stay less than a week), there is a kitchenette (including microwave, full size refrigerator, dishwasher, and stovetop ranges, and but no conventional oven) and a small pantry of food for sale (honor system) but no "breakfast" (other than what you may put together from the pantry).  On some stays, however, I find the pantry to be poorly stocked.The rooms are clean and reasonably spacious but purely functional in appearance.  There is a VCR in every room and some (older) movies available for free rent at the front desk.  The TV has most of the local channels (though on shuffled channel numbers) and HBO, HBO Plus, and HBO Signature (the latter two from East Coast feeds!).It's a convenient location just a couple minutes from the 55 freeway, and a nice spacious parking lot in front.  Only business parks immediately around, tho, so it's a short drive (in any of several directions) before you start finding restaurants.The front desk staff are courteous, but all too often they're not there when you walk up because they're dealing with a guest in a room somewhere else in the hotel.  So sometimes you have to wait 5 or 10 minutes until they come back.  Also, check in and check out can be slow during busy morning or evening periods since they can only do one at a time.One very nice feature is free washers and dryers (you can pay 75c for a box of detergent or you can bring your own if you want).Internet is free via ethernet cable (I bring my own, I'm not sure if they supply one on request), but you have to re-login every time you wake up  your laptop, and the pesky toolbar it brings up sometimes messes with the size of your browser window.(If you've stayed at other Candlewoods before, this is very similar.  I'd rate this a bit better run than a couple of the other Candlewoods I've stayed at.)Be aware that because some guests extend stays unexpectedly and the hotel is often fully booked, there's more chance that they'll "walk" you (send you to an alternate area hotel at no charge to you for the night) at this hotel than at most others in the area.  If you want to save money, that can be good, but if you wanted a specific feature of this hotel that night, it can be less good.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1581,2788 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>167</v>
+      </c>
+      <c r="X19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>176</v>
+      </c>
+      <c r="X20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>190</v>
+      </c>
+      <c r="X22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" t="s">
+        <v>199</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s">
+        <v>225</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>103</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>238</v>
+      </c>
+      <c r="X29" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s">
+        <v>103</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>253</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>263</v>
+      </c>
+      <c r="J33" t="s">
+        <v>264</v>
+      </c>
+      <c r="K33" t="s">
+        <v>265</v>
+      </c>
+      <c r="L33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>267</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J34" t="s">
+        <v>270</v>
+      </c>
+      <c r="K34" t="s">
+        <v>271</v>
+      </c>
+      <c r="L34" t="s">
+        <v>272</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>273</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>275</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>276</v>
+      </c>
+      <c r="J35" t="s">
+        <v>277</v>
+      </c>
+      <c r="K35" t="s">
+        <v>278</v>
+      </c>
+      <c r="L35" t="s">
+        <v>279</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>280</v>
+      </c>
+      <c r="O35" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>282</v>
+      </c>
+      <c r="J36" t="s">
+        <v>283</v>
+      </c>
+      <c r="K36" t="s">
+        <v>284</v>
+      </c>
+      <c r="L36" t="s">
+        <v>285</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>286</v>
+      </c>
+      <c r="O36" t="s">
+        <v>103</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>288</v>
+      </c>
+      <c r="J37" t="s">
+        <v>289</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>292</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>294</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" t="s">
+        <v>296</v>
+      </c>
+      <c r="K38" t="s">
+        <v>297</v>
+      </c>
+      <c r="L38" t="s">
+        <v>298</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>299</v>
+      </c>
+      <c r="O38" t="s">
+        <v>103</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>301</v>
+      </c>
+      <c r="J39" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" t="s">
+        <v>303</v>
+      </c>
+      <c r="L39" t="s">
+        <v>304</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>305</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>307</v>
+      </c>
+      <c r="J40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K40" t="s">
+        <v>309</v>
+      </c>
+      <c r="L40" t="s">
+        <v>310</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>311</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>314</v>
+      </c>
+      <c r="J41" t="s">
+        <v>315</v>
+      </c>
+      <c r="K41" t="s">
+        <v>316</v>
+      </c>
+      <c r="L41" t="s">
+        <v>317</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>318</v>
+      </c>
+      <c r="O41" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>319</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>320</v>
+      </c>
+      <c r="J42" t="s">
+        <v>321</v>
+      </c>
+      <c r="K42" t="s">
+        <v>322</v>
+      </c>
+      <c r="L42" t="s">
+        <v>323</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>324</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" t="s">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s">
+        <v>328</v>
+      </c>
+      <c r="L43" t="s">
+        <v>329</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>331</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>332</v>
+      </c>
+      <c r="J44" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s">
+        <v>50</v>
+      </c>
+      <c r="L44" t="s">
+        <v>334</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>335</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>337</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>338</v>
+      </c>
+      <c r="J45" t="s">
+        <v>339</v>
+      </c>
+      <c r="K45" t="s">
+        <v>340</v>
+      </c>
+      <c r="L45" t="s">
+        <v>341</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_99.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_99.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>taos62</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Larry B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r578292992-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>Hotel staff were very accommodating to our needs.  Our two small dogs were welcome during our six day stay prior to departing by car to North Carolina.   Highly recommend the Candlewood Suites to anyone.</t>
   </si>
   <si>
+    <t>Oli0612</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r563804571-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>Nice big parking lot, close to grocery stores. Kitchenette with full fridge (with freezer) in the room with basic pots and stuff and there’s kitchen supplies like toaster you can borrow from the equipment lockers downstairs. Bathroom was clean but could use some fixing. And ours was infested by ants! Kept seeing them on the countertop, on the floor and inside the bath. Room is good size, bed is small - the king was definitely NOT a king. The heater smelled. Luckily we were there only for one night. It was a good deal and not too far from Disneyland (20mins drive) but we won’t be back. More</t>
   </si>
   <si>
+    <t>regulartravelman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r519708369-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Marz J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r513855859-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>The only complaint I have is I received a very rude phone call from a woman with a nasty attitude working front desk accusing me of stomping from the people complaining below me when no one was in my suite during the day at that time. I am here on business and I work majority of morning/day. I will not be talked to or treated like that after a long day as a guest. Clearly the hospitality business is not for her. The check in was super fast and easy. Matthew was working front desk he was so professional such a pleasure to be checked in by him. He was fantastic! Bathroom was nice,spacious, and clean. Tv, fridge, micro &amp; AC worked. Clean carpeting and suite but it had a slight Oder made room smell musty... had to keep AC on high at all times to remove the smell, clean floor in kitchen. Nice kitchenette everything worked and super clean. Clean Utensils and cooking ware were provided in room, was so pleased. Even provides cleaning products and paper towels in suites. Good phone service. Clean bedding and sheets. Wifi worked. Nice size parking lot located at property with plenty of parking. Towels were clean. Big fluffy pillows were so comfortable. Elevator located at property. I'd also suggest security in parking lot, the last night of stay I had a weird man in the parking lot randomly ask me in broad...The only complaint I have is I received a very rude phone call from a woman with a nasty attitude working front desk accusing me of stomping from the people complaining below me when no one was in my suite during the day at that time. I am here on business and I work majority of morning/day. I will not be talked to or treated like that after a long day as a guest. Clearly the hospitality business is not for her. The check in was super fast and easy. Matthew was working front desk he was so professional such a pleasure to be checked in by him. He was fantastic! Bathroom was nice,spacious, and clean. Tv, fridge, micro &amp; AC worked. Clean carpeting and suite but it had a slight Oder made room smell musty... had to keep AC on high at all times to remove the smell, clean floor in kitchen. Nice kitchenette everything worked and super clean. Clean Utensils and cooking ware were provided in room, was so pleased. Even provides cleaning products and paper towels in suites. Good phone service. Clean bedding and sheets. Wifi worked. Nice size parking lot located at property with plenty of parking. Towels were clean. Big fluffy pillows were so comfortable. Elevator located at property. I'd also suggest security in parking lot, the last night of stay I had a weird man in the parking lot randomly ask me in broad daylight where he could buy some drugs. Like Really!? What kind of place is this? I will not be returning here ever again. Did not feel safe. Very disappointed. More</t>
   </si>
   <si>
+    <t>muazzams2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r513373749-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>I stayed in this hotel for over a month between selling and buying homes. The staff is really friendly and the hotel is nice. The rooms are kind of small but they have all the basic amenities including a small electric range and microwave along with a fridge. Another thing to note is that this place is pet friendly and you can bring in your pet for a small fee. They have a DVD library for renting out movies for free. The parking lot is huge and the location is just perfect. One small grip would be that they don't have a swimming pool, although they have a nice small gym and free use of laundry.Overall this is a great little hotel to stay at.More</t>
   </si>
   <si>
+    <t>booboo04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r468051292-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>I've stayed here numerous times and it's fine. It has a small kitchenette, good-sized desk/work area, and an average-sized bathroom. The area around the bed is a bit tight. The price is right and it has a good location. Fast food is a five-minute walk and if you have a car, there's a lot of businesses and food a short distance away. Cell service is good on my two carriers (AT&amp;T and VZW). Internet has been fast and reliable for me. There are several places that deliver food to the Candlewood and I've had good experiences with all. There is no shuttle to and from SNA airport, but I use a cab and it's reasonable and quick.More</t>
   </si>
   <si>
+    <t>John L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r467604416-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>As the title indicates this hotel is clean, comfortable and convenient while also being COST EFFECTIVE, there is great shopping and good restaurants near by but somehow seems quiet and peaceful. The best feature of this hotel is the staff and if you are fortunate enough to deal with a young man at the front desk named John, tell him what you are interested in or what you are looking for  and he will provide you with great suggestions and directions. He was spot on directing us to a number of places my wife was interested in and NAILED EACH AND EVERYONE. I would recommend this hotel for business or pleasure, single or family it covers them all.More</t>
   </si>
   <si>
+    <t>Dan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r465035214-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t>This hotel is more frequented by people needing a small kitchenette for extended stays than for business travels.  however, with that said, the rooms are spacious and quiet, the bed is comfortable and plenty of parking.  i would stay here again if i come back to the area.</t>
   </si>
   <si>
+    <t>Dino G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r424123885-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -369,6 +399,9 @@
     <t>Had a problem with air conditioner not working.  After a few days of trying different stuff they replaced it. Then the smoke alarm went bad at 1 a.m.  the only reason they all got 4 stars is because of the awesome front desk people.  They were very friendly and more than happy to make u comfortable.  So they may need improvement on maintenance and I felt an apology from management would have been professional as it was very inconvenient to have a floor soaked with water.  We had 2 rooms for a week so they need help as I never saw management,  but as I said there front desk help saves the day and they do the maintenance as they always came to fix everything while running the front desk.  Kudos to the front desk help. More</t>
   </si>
   <si>
+    <t>FSalvatore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r372962888-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>The hotel area was good. Very quiet and clean. Check-in was fast and the reception guy greeted us in such a manner that we felt welcomed and it was a good feeling. Well we had a long drive from Vegas. The room was good enough for the two of us. Clean, well kept and having a kitchenette is a plus point. But the only setback was the curtains. We were unable to draw the curtains. So it was left like that for 3 days. No privacy for sure. Malls and supermarket were just a driving range from the hotel. It was a good location. Easy to travel anywhere. Love it!BBQ area located at the backyard and ample parking space provided which is good. Overall it was a great stay for 3 days. More</t>
   </si>
   <si>
+    <t>Louie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r345191096-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -408,6 +444,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Daniel H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r316308003-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -429,6 +468,9 @@
     <t>My room was a studio suite that had a kitchen with everything except and oven, bed, bathroom, desk/kitchen table, TV, and very comfortable reclining chair.A WalMart Superstore is a short 5 minute drive or a long half-mile walk away. However, the hotel has its own mini market for those on the spot cravings.I took advantage of the free washer/dryer and complimentary laundry detergent. The workout room is in the same room.The hotel is on a major Orange County bus route with 2 buses that have stops right in front of the hotel.The hotel is near the freeway and many restaurants and shopping places are within a short 5-10 minute drive. The staff was excellent and really wanted me to have a great stay...and I did.More</t>
   </si>
   <si>
+    <t>lizzap2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r311087497-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -447,6 +489,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>BrianMillerSantee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r290952554-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -468,6 +513,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>ottojuan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r284747468-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -483,6 +531,9 @@
     <t>The facilities in this hotel are very good and the staff is excellent, very helpful and they go out of their way to help the guest and  make your stay the best (specially Alrich, Norman and John).  I recommend this hotel very highly.</t>
   </si>
   <si>
+    <t>ShuchiThakur</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r271908720-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -504,6 +555,9 @@
     <t>This hotel has a homely feel. At the onset, it looks like a small hotel, but believe me its not small. It has many many rooms. In Fact, they are small suites with a kitchnette attached. I stayed with my mother and requested for two queen beds. The beds were superbly comfortable and huge.The kitchnette is a big plus as for long stay you need the facility to cook small meals. There are plenty of pots and pans for cooking. The only problem is that the electric stove was quite low on heat so we could not cook our indian curries. They have done this for security reasons. The staff is very helpful as they guided us on sightseeing. The free laundry is advantageous and they have a small fitness room too. There is a small shop where you can make tea/coffee for free and buy limited eatables in case of need. They have a huge parking so bringing you own car is not a problem.The room has a big TV, microwave and a decent size refrigerator.The only downside, if we may say, is that the housekeeping is done once a week which is a bit less. Alls aid and done, wonderful place to stay and i would stay there again.More</t>
   </si>
   <si>
+    <t>FamilleSB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r269664366-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -528,6 +582,9 @@
     <t>Needed to visit a local company, took the train so had no car.  This is not a great location if you don’t have a car, there are no dining options close by and the hotel has a very limited selection of pre-packaged foods that you can microwave in your room.  This is a budget hotel and is perfect for someone who just needs a safe, clean and efficient hotel.  There are absolutely no frills, there is not even a lobby to speak of.  The room was perfectly clean, the bed was comfortable.  My room had a weird smell though, couldn’t tell what it was, maybe it just needed a good airing out.  The staff that I encountered were great.More</t>
   </si>
   <si>
+    <t>travel447</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r250412598-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -555,6 +612,9 @@
     <t>The room in this Candlewood was clean and nice size. It had a stove, microwave, and full refrigerator. There is no ice in the bldg so yo must remember to turn the refrigerator ice maker on upon arrival so it can make ice. Good room climate control and ample closet space. The hotel is in a quiet location.  Front desk hours are from 7am-11pm.  Elevator and hallways were clean but didn't have a fresh smell.  The hotel has an exercise room with a variety of machines and weights.  There is no complimentary breakfast and cupboard items are not a bargain plus the cupboard was basically bare when I was there. The complimentary WIFI was easy to connect.  TV channels are limited but do have most ESPN channels and HBO. Bed comfort was OK but you can only get a queen bed in this hotel.  IHG Reward members get nothing but reduced points at this hotel. This hotel will do as a port in a storm but its not a good value for the rate paid. Moreover, there are much better choices at comparable Marriott, etc, hotels.More</t>
   </si>
   <si>
+    <t>nataraj_panakanti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r248466519-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -570,6 +630,9 @@
     <t>Stayed here for about 80 days and had quite a comfortable stay. Got a good deal on the room rates for an extended stay. Staff was courteous. No complementary breakfast, since they had kitchen in the rooms. Plenty of food places within 2 mile radius, so no complaints. Rooms were quite nice and clean. However some of the guests in smoking rooms went overboard and the hallway used to smell a little of cigarette smoke. Of course, the hotel staff is not to be blamed for it.Will go back for an extended stay, if I visit the Orange County area again.</t>
   </si>
   <si>
+    <t>Marie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r247105390-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -597,6 +660,9 @@
     <t>The hotel location is quiet, away from any busy road or Freeway noise, and airport noise ends at 11pm and doesn't resume until 7 a.m. so that was no problem either.  It's also located centrally which makes getting to just about any Orange County location pretty easy. We had a Studio Suite, which provided all the basic necessities to settle in for a bit and save some money on eating out every meal (this included dishes and utensils!), and it also had some work space.The "suite" was comfortable but not fancy in any way.  We chose the hotel to be close to central Santa Ana, where we had to make early moring meetings. Getting there by surface streets was an easy 15 minute drive. And since we got a special deal on the suite, it was a good value too.More</t>
   </si>
   <si>
+    <t>Viking94708</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r225513153-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -627,6 +693,9 @@
     <t>I have stayed at somewhere between 7-9 Candlewood properties and they are about as identical and uneventful in consistency as I have seen from a small brand within a hotel chain.  Where I would give this one high marks is on location (quiet and perfect for SNA/Irvine/South Coast Plaza), ease of parking and convenience and just completing a moderate renovation.  The real problem is with the chain, Intercontinental Hotels.  They have gotten greedy and have made it much more difficult to achieve loyalty points (Rewards Club), and very lame promotional offers compared to other hotel companies.  For example, you could stay in a decent Courtyard or Hampton Inn for the same redemption level as this place.  They are not relatable hotel types.  I asked for a late check out on a weekend that was DEAD, I was given until 1 pm.  It's another example of the lack of aggressive hospitality that you see more at other chains.  They need to do better or sell the chain to a better lodging company, which I think will happen next year.More</t>
   </si>
   <si>
+    <t>Mike B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r224878107-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -642,6 +711,9 @@
     <t>if you are looking for a good clean room only this is a good alternative.  No pool no food.  Have to walk about a mile and a half to get to any food.  Clean and very comfortable beds nice flatscreen in rooms.  Rooms have kitchens as well.</t>
   </si>
   <si>
+    <t>CandlelitDream</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r223313048-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -660,6 +732,9 @@
     <t>This was a really nice stay overall I have to say. I see why it's rated highly. The grounds were well kept and felt pretty welcoming. Parking was no problem as the lot was spacious. Checking in was fairly easy as our reservations were already made online. We only stayed for one night but everything was comfortable including our queen size bed. The fridge and sink area were clean along with the very spacious desk which we made good use of. The tv was pretty awesome, we brought a console to make good use of it (movies, games etc)! One of the things that we missed out on and I think others have too is the shade curtains. I was trying to figure out trying to close them to block the sun in the morning and didn't realize there was a second track (closest to the window). Granted, I was half asleep hahaha. Lots of things to do nearby too! Anyway, I give 4 points because, to me going into the lobby and into the hotel, it was really stuffy and had a slightly odd smell. Just kinda seemed like there was no airflow through the hallways etc like some doors or windows needed to be opened. I also found a hair in my tub and that type of thing grosses me out. So all in all would I stay again? Most definitely, it was worth the value and the...This was a really nice stay overall I have to say. I see why it's rated highly. The grounds were well kept and felt pretty welcoming. Parking was no problem as the lot was spacious. Checking in was fairly easy as our reservations were already made online. We only stayed for one night but everything was comfortable including our queen size bed. The fridge and sink area were clean along with the very spacious desk which we made good use of. The tv was pretty awesome, we brought a console to make good use of it (movies, games etc)! One of the things that we missed out on and I think others have too is the shade curtains. I was trying to figure out trying to close them to block the sun in the morning and didn't realize there was a second track (closest to the window). Granted, I was half asleep hahaha. Lots of things to do nearby too! Anyway, I give 4 points because, to me going into the lobby and into the hotel, it was really stuffy and had a slightly odd smell. Just kinda seemed like there was no airflow through the hallways etc like some doors or windows needed to be opened. I also found a hair in my tub and that type of thing grosses me out. So all in all would I stay again? Most definitely, it was worth the value and the guys at the front desk were very nice!More</t>
   </si>
   <si>
+    <t>Jeff J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r201301918-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -681,6 +756,9 @@
     <t>Stayed here on a business trip for 3 weeks.  It was located in a central location to many shopping areas, restaurants and freeways.  The staff was very attentive, including the cleaning crew.  They only clean/exchange towels and bedding once a week so if staying for an extended time with family, you will need to take your towels to the front desk where they exchange them for you.  The kitchenette in the suite was very well maintained and included just about everything I needed to save some money by eating in.  The 24 hour FREE laundry was a definite plus and they have the "Candlewood Cupboard" where you can purchase snacks, soda, water and get free coffee.  I would definitely stay here again and would recommend this hotel for those traveling on business.More</t>
   </si>
   <si>
+    <t>jaysnow2912</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r198888140-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -696,6 +774,9 @@
     <t>Stayed in this hotel for five (5) weeks.Pros:24hr free laundry24hr free work out gym24hr mini convenience storeNear to the district (watch movies, groceries)Near WalmartFriendly StaffCons:Room service is only every SaturdayNo restaurants or breakfastNo restaurants nearby (Panda express is 0.5 miles away)</t>
   </si>
   <si>
+    <t>NVTravele</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r196625059-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -714,6 +795,9 @@
     <t>The hotel is clean staff was a pleasant liar.  He told us they did not HAVE to give us two beds because we booked through Hotels.com.  We got no break on price anyway however the person in front of me paid 79.  It was deceptive and not how alleged guests expect to be treaded.  Horrible experienceThe claim to be full was a lie the parking lot is empty and the room down the hall had either a dead guest or was empty because the clock alarm was blaring for hoursIf all the hotels are as unprofessional as this I will avoid from now on.  I am glad your company didn't build in my community it would have been an embarrassment to have our visitors treated so unfairly.We paid the FULL price according get to YOUR website Very shabby shabby service.More</t>
   </si>
   <si>
+    <t>Shinyfrogeditor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r184317173-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -741,6 +825,9 @@
     <t>The staff at the front desk was very friendly at check-in and let us check-in early since we got to the hotel a little bit early from LAX.Reason for 3 - stars: We stayed from a Wednesday --&gt; Monday and not even ONCE did room service show up to clean the room and restock towels etc.More</t>
   </si>
   <si>
+    <t>agchen1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r164132399-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -762,6 +849,9 @@
     <t>Good points:  The hotel has free wi-fi internet, which was inconsistent in speed but generally ok, free &amp; safe parking, a decent gym, self-service laundry (inexpensive), free water, self-service pantry area (pay for snacks) &amp; good size desk as well as kitchen area.  You can also rent DVD's for free at the front desk.  The hotel is only 3 minutes away from Walmart &amp; 5 minutes away from The District (which has Target, Costco, Whole Foods &amp; other stores, restaurants &amp; a cinema).  Our room faced the parking lot but we didn't have any trouble with noise from the 2 main streets facing us.Bad points:  Unfortunately, the luggage was self-service as well although luggage carts are available.  Room cleaning is also done only once a week, which we didn't mind because we did lots of shopping &amp; didn't have a chance to store &amp; lock everything away daily; the rooms were clean anyways &amp; this allowed for environmental use of sheets &amp; towels (although not all visitors might appreciate this).  Our room's bath tub was also clogged initially &amp; the water felt slippery but both problems went away (repairman fixed the clog &amp; water no longer left "a layer" on hands/body).More</t>
   </si>
   <si>
+    <t>chelly12364</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r162539898-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -781,6 +871,9 @@
   </si>
   <si>
     <t>This is my first time staying at a Candlewood Suites and this place is pretty new so I had no complaints at all.  Comfy beds, large working space, fridge and kitchen facilities, plenty of outlets, large bathroom, all the things I look for when I stay somewhere.  You don't get a free breakfast and although there is a little "store" for snacks, they didn't have a real selection of breakfast items.  That was the only downside for me.  That, and they did not have actual coffee creamer - just the powdered stuff, but they told me they ran out.  Otherwise, very nice!  Oh, and there is a laundry facility there as well which is great for an extended stay.More</t>
+  </si>
+  <si>
+    <t>wreckit</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r154305591-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -816,6 +909,9 @@
 To get all these at 85 USD, it seems almost...The last time I visited the US was 8 years ago and this time, Candlewood completely impressed me again. Their unconventional approaches to deliver value to customers show that they have in depth understanding of the hospitality industry. Many features in Candlewood is not found anywhere else by any hotel in the world.First, the cleanliness is simply incredible! I can never understand how a hotel room become so extremely clean that it looks like newly renovated. I was upgraded to a suite room room and the bed and pillows were so good, I felt like I was floating. It really help me to overcome my pan-pacific flight and jet lag.The kitchen which is not mini had ceramic hob, more than ample cutleries, coffee machine, take away coffee cups, huge microwave and refrigerator, coffee &amp; decaf and the pop-corn was a delightful addition.There were flat screen TV in the living room and the bed room. All the furniture were ultra, clean of high quality and seemingly new. The utility table was large and well positioned, chairs and sofas was of a high standard better than many 5 stars hotels. Wardrobes were well positioned storage.There was a reasonably good gym, mini food outlet and laundry room with good and free equipment.Within 1 km, you will find Walmart, Taco Bell and a little further Cosco, AMC etc etc.To get all these at 85 USD, it seems almost illegal! I am a total fan of Candlewood, it has everything I need and none of the stuff I don't need.South LA is not well served by public transport except Disneyland area so it can be quite expensive to get to and from the hotel if you are not driving.More</t>
   </si>
   <si>
+    <t>honesty59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r152574183-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -832,6 +928,9 @@
   </si>
   <si>
     <t>February 2013</t>
+  </si>
+  <si>
+    <t>Danreviewscars</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r144679518-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -871,6 +970,9 @@
 For the value, I would absolutely...Had a reservation with another hotel which I admittedly messed up (booked the wrong date, and they were sold out for the correct night).Booked with Candlewood Suites OC/Airport at 4pm, and arrived 45 minutes later to a welcoming staff and clean room.The property appears to have been recently remodeled, and the resulting decor is stunning.  From a business traveler's perspective, there's nothing better than pulling up to a clean, well-lit open parking lot with ample space.I was offered a soda as soon as I checked in, and given loads of step-by-step information on how to make my stay more enjoyable.The rooms are beautiful and feature a fully-stocked kitchen with long work/dining table, large flat-screen TVs in the living area and bedroom, modern furnishings and decor, and a calming overall ambiance.Wi-Fi was free and lightning fast, HVAC was built-in (no ugly units hanging from the walls), and there was a fitness center/convenience store/laundry facility on site.Downsides?  The hotel wasn't always a non-smoking property, and my room smelled faintly of stale cigarette smoke.  If possible, ask for a room on a floor which was always non-smoking.  Availability during my last-minute trip was limited, so I took whatever I received.Nothing is really within walking distance, and there's an eerie abandoned military base right across the street.  I never felt unsafe, though, and with a car, the location is just fine.For the value, I would absolutely stay here again.More</t>
   </si>
   <si>
+    <t>Jerome T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r139029359-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -889,6 +991,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Tom S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r131930114-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -907,6 +1012,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>ThomasD91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r131102872-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -928,6 +1036,9 @@
     <t>I stayed at this hotel for a day on business. It is at good location, close to John Wayne airport and near a major shopping mall with many restaurants, shops and grocery store.The room was very clean and has been recently renovated. The person at the reception was very helpful and courteous.The Holiday Inn group must have hired a real good interior designer a couple of years ago and it shows because furniture, arrangement are really good in many of these chain-hotels now and not as bland as many other efficiency type hotels. I personally like the interior, it is above standard. The efficiency suite was well equipped, great value for the price The hotel has no pool, but laundry, fitness etc.and the A/C was one of the more noisy types, not a big problem in Cal though, but only 4 stars for that.It is definitely great for a longer stay.More</t>
   </si>
   <si>
+    <t>d3vilkitten</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r122656826-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -946,6 +1057,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>Anton G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r121188278-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -964,6 +1078,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>saleschick87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r118463977-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -985,6 +1102,9 @@
     <t>I prefer to have the ability to cook my meals when I travel because I have food allergies and Candlewood properties give me that option.  I did get an upgraded room to a 1 bedroom suite so my sleeping area was separate from the sitting/kitchen area.  The property was clean and the staff was pleasant.  It is also only about a mile from a good shopping district with lots of restaurants if you prefer to eat out.  There is also a Whole Foods and Alberstons nearby.  It is minutes from John Wayne airport, which was pretty nice for my early morning flight. The do have an onsite exercise room and free use of washers and dryers which would come in quite handy for a longer trip.More</t>
   </si>
   <si>
+    <t>JulieJev</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r114996521-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1003,6 +1123,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>kitchi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r58949732-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1021,6 +1144,9 @@
     <t>September 2008</t>
   </si>
   <si>
+    <t>Nabita</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r14919240-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1039,6 +1165,9 @@
     <t>We spent 5 weeks here (my husband and our 1yr old son).  The sofa has some stain on it and I found a sock behind the tv cabinet.  They changed the sofa cushion cover on the same day.  As others indicated, this is extended stay so room cleaning is once a week which is not sufficient when you have a toddler.  We requested daily vacuum and they did it on altenate day.  Sometimes we borrowed vacuum from them at night but there's a night where it was unavailable. Rooms have a recliner, sofa bed, full sized refrigerator, microwave, 2 burner range, sink and dishwasher, big bathroom. Utensils, cookware and dishes are provided. There is a gym and free laundry too. Staffs are friendly and helpful except for one serious grumpy man who makes you feel uncomfortable asking for detergent or a vacuum.Downside: No breakfast, no pool, no daily housekeeping, no restaurant, no room service, need to ask for dish detergent or soap.  Coffee and pop corn only provided once when u checked in.  Not a walking distance to fast food restaurant and grocery store.More</t>
   </si>
   <si>
+    <t>Snugdad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r8211736-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1055,6 +1184,9 @@
   </si>
   <si>
     <t>I spent 9 weeks here (May-June-July 07) on an extended business assignment.  The hotel was clean and quiet and was ideally located for my work.  As others indicated, this is extended stay so room cleaning is once a week.  Rooms have a full sized refrigerator, microwave, 2 burner range, sink and dishwasher.  Utensiles, cookware and dishes are provided.  There is a free laundry on site which is a real bonus for extended stay.  The drawbacks are there are no restaurants within a mile or two so if you're not cooking in the room it's a little drive.  Given the southern California climate the real shortcoming was not having a pool.  That would have made the weekends a little more enjoyable while away from home.  In all a very good value if your travel has you on an extended stay.More</t>
+  </si>
+  <si>
+    <t>sdlax</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r3841642-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -1585,43 +1717,47 @@
       <c r="A2" t="n">
         <v>41898</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>130040</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1635,41 +1771,45 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41898</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>3975</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -1688,50 +1828,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41898</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>130041</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1743,56 +1887,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41898</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>130042</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1810,50 +1958,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41898</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>130043</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1865,56 +2017,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41898</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>130044</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1932,50 +2088,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41898</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>130045</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1989,50 +2149,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41898</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>2639</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2052,50 +2216,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41898</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>4365</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2115,50 +2283,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41898</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>130046</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2172,50 +2344,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41898</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>130047</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2229,50 +2405,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41898</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>2575</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2290,50 +2470,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41898</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>9637</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2353,50 +2537,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41898</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>130048</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2410,50 +2598,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41898</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>130049</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2467,50 +2659,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41898</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>130050</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2530,50 +2726,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41898</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>130051</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2591,50 +2791,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41898</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>130052</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2652,56 +2856,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="X19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41898</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>130053</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -2719,47 +2927,51 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41898</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>130054</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
@@ -2788,50 +3000,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41898</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>61400</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -2849,56 +3065,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="X22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41898</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>130055</v>
+      </c>
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -2914,56 +3134,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="X23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="Y23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41898</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>2674</v>
+      </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2983,50 +3207,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41898</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>130056</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3044,50 +3272,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41898</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>43579</v>
+      </c>
+      <c r="C26" t="s">
+        <v>238</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3111,50 +3343,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41898</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>130057</v>
+      </c>
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="J27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3178,41 +3414,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41898</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>130058</v>
+      </c>
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
@@ -3241,50 +3481,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41898</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>130059</v>
+      </c>
+      <c r="C29" t="s">
+        <v>259</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3306,56 +3550,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="X29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="Y29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41898</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>130060</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3379,50 +3627,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41898</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>130061</v>
+      </c>
+      <c r="C31" t="s">
+        <v>277</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3446,50 +3698,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41898</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>130062</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="J32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3513,50 +3769,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41898</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>130063</v>
+      </c>
+      <c r="C33" t="s">
+        <v>293</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="J33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="K33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3580,50 +3840,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41898</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>130064</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="J34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3647,50 +3911,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41898</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>41289</v>
+      </c>
+      <c r="C35" t="s">
+        <v>308</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="J35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="K35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3714,50 +3982,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41898</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C36" t="s">
+        <v>315</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="J36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="O36" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3781,50 +4053,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41898</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>130065</v>
+      </c>
+      <c r="C37" t="s">
+        <v>322</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -3848,50 +4124,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41898</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>130066</v>
+      </c>
+      <c r="C38" t="s">
+        <v>330</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="J38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="K38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -3915,50 +4195,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41898</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>130067</v>
+      </c>
+      <c r="C39" t="s">
+        <v>337</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="J39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="K39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -3982,50 +4266,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41898</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>130068</v>
+      </c>
+      <c r="C40" t="s">
+        <v>344</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="J40" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="K40" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4049,50 +4337,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41898</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>130069</v>
+      </c>
+      <c r="C41" t="s">
+        <v>352</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="J41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="K41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="O41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4112,50 +4404,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41898</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>130070</v>
+      </c>
+      <c r="C42" t="s">
+        <v>359</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="J42" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="K42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4179,41 +4475,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41898</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>130071</v>
+      </c>
+      <c r="C43" t="s">
+        <v>366</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="J43" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="K43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
@@ -4232,50 +4532,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41898</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>130072</v>
+      </c>
+      <c r="C44" t="s">
+        <v>373</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="K44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4299,41 +4603,45 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41898</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>130073</v>
+      </c>
+      <c r="C45" t="s">
+        <v>380</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="J45" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="K45" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="L45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
@@ -4360,7 +4668,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_99.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_99.xlsx
@@ -1718,7 +1718,7 @@
         <v>41898</v>
       </c>
       <c r="B2" t="n">
-        <v>130040</v>
+        <v>160750</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -1836,7 +1836,7 @@
         <v>41898</v>
       </c>
       <c r="B4" t="n">
-        <v>130041</v>
+        <v>160751</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -1901,7 +1901,7 @@
         <v>41898</v>
       </c>
       <c r="B5" t="n">
-        <v>130042</v>
+        <v>160752</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -1966,7 +1966,7 @@
         <v>41898</v>
       </c>
       <c r="B6" t="n">
-        <v>130043</v>
+        <v>160753</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -2031,7 +2031,7 @@
         <v>41898</v>
       </c>
       <c r="B7" t="n">
-        <v>130044</v>
+        <v>160754</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -2096,7 +2096,7 @@
         <v>41898</v>
       </c>
       <c r="B8" t="n">
-        <v>130045</v>
+        <v>160755</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
@@ -2291,7 +2291,7 @@
         <v>41898</v>
       </c>
       <c r="B11" t="n">
-        <v>130046</v>
+        <v>160756</v>
       </c>
       <c r="C11" t="s">
         <v>119</v>
@@ -2352,7 +2352,7 @@
         <v>41898</v>
       </c>
       <c r="B12" t="n">
-        <v>130047</v>
+        <v>160757</v>
       </c>
       <c r="C12" t="s">
         <v>127</v>
@@ -2545,7 +2545,7 @@
         <v>41898</v>
       </c>
       <c r="B15" t="n">
-        <v>130048</v>
+        <v>160758</v>
       </c>
       <c r="C15" t="s">
         <v>150</v>
@@ -2606,7 +2606,7 @@
         <v>41898</v>
       </c>
       <c r="B16" t="n">
-        <v>130049</v>
+        <v>160759</v>
       </c>
       <c r="C16" t="s">
         <v>157</v>
@@ -2667,7 +2667,7 @@
         <v>41898</v>
       </c>
       <c r="B17" t="n">
-        <v>130050</v>
+        <v>160760</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -2734,7 +2734,7 @@
         <v>41898</v>
       </c>
       <c r="B18" t="n">
-        <v>130051</v>
+        <v>160761</v>
       </c>
       <c r="C18" t="s">
         <v>171</v>
@@ -2799,7 +2799,7 @@
         <v>41898</v>
       </c>
       <c r="B19" t="n">
-        <v>130052</v>
+        <v>160762</v>
       </c>
       <c r="C19" t="s">
         <v>179</v>
@@ -2870,7 +2870,7 @@
         <v>41898</v>
       </c>
       <c r="B20" t="n">
-        <v>130053</v>
+        <v>160763</v>
       </c>
       <c r="C20" t="s">
         <v>188</v>
@@ -2941,7 +2941,7 @@
         <v>41898</v>
       </c>
       <c r="B21" t="n">
-        <v>130054</v>
+        <v>160764</v>
       </c>
       <c r="C21" t="s">
         <v>198</v>
@@ -3079,7 +3079,7 @@
         <v>41898</v>
       </c>
       <c r="B23" t="n">
-        <v>130055</v>
+        <v>148524</v>
       </c>
       <c r="C23" t="s">
         <v>214</v>
@@ -3215,7 +3215,7 @@
         <v>41898</v>
       </c>
       <c r="B25" t="n">
-        <v>130056</v>
+        <v>160765</v>
       </c>
       <c r="C25" t="s">
         <v>231</v>
@@ -3351,7 +3351,7 @@
         <v>41898</v>
       </c>
       <c r="B27" t="n">
-        <v>130057</v>
+        <v>160766</v>
       </c>
       <c r="C27" t="s">
         <v>246</v>
@@ -3422,7 +3422,7 @@
         <v>41898</v>
       </c>
       <c r="B28" t="n">
-        <v>130058</v>
+        <v>160767</v>
       </c>
       <c r="C28" t="s">
         <v>252</v>
@@ -3489,7 +3489,7 @@
         <v>41898</v>
       </c>
       <c r="B29" t="n">
-        <v>130059</v>
+        <v>160768</v>
       </c>
       <c r="C29" t="s">
         <v>259</v>
@@ -3564,7 +3564,7 @@
         <v>41898</v>
       </c>
       <c r="B30" t="n">
-        <v>130060</v>
+        <v>160769</v>
       </c>
       <c r="C30" t="s">
         <v>269</v>
@@ -3635,7 +3635,7 @@
         <v>41898</v>
       </c>
       <c r="B31" t="n">
-        <v>130061</v>
+        <v>160770</v>
       </c>
       <c r="C31" t="s">
         <v>277</v>
@@ -3706,7 +3706,7 @@
         <v>41898</v>
       </c>
       <c r="B32" t="n">
-        <v>130062</v>
+        <v>160771</v>
       </c>
       <c r="C32" t="s">
         <v>285</v>
@@ -3777,7 +3777,7 @@
         <v>41898</v>
       </c>
       <c r="B33" t="n">
-        <v>130063</v>
+        <v>160772</v>
       </c>
       <c r="C33" t="s">
         <v>293</v>
@@ -3848,7 +3848,7 @@
         <v>41898</v>
       </c>
       <c r="B34" t="n">
-        <v>130064</v>
+        <v>160773</v>
       </c>
       <c r="C34" t="s">
         <v>300</v>
@@ -4061,7 +4061,7 @@
         <v>41898</v>
       </c>
       <c r="B37" t="n">
-        <v>130065</v>
+        <v>160774</v>
       </c>
       <c r="C37" t="s">
         <v>322</v>
@@ -4132,7 +4132,7 @@
         <v>41898</v>
       </c>
       <c r="B38" t="n">
-        <v>130066</v>
+        <v>130057</v>
       </c>
       <c r="C38" t="s">
         <v>330</v>
@@ -4203,7 +4203,7 @@
         <v>41898</v>
       </c>
       <c r="B39" t="n">
-        <v>130067</v>
+        <v>160775</v>
       </c>
       <c r="C39" t="s">
         <v>337</v>
@@ -4274,7 +4274,7 @@
         <v>41898</v>
       </c>
       <c r="B40" t="n">
-        <v>130068</v>
+        <v>160776</v>
       </c>
       <c r="C40" t="s">
         <v>344</v>
@@ -4345,7 +4345,7 @@
         <v>41898</v>
       </c>
       <c r="B41" t="n">
-        <v>130069</v>
+        <v>160777</v>
       </c>
       <c r="C41" t="s">
         <v>352</v>
@@ -4412,7 +4412,7 @@
         <v>41898</v>
       </c>
       <c r="B42" t="n">
-        <v>130070</v>
+        <v>160778</v>
       </c>
       <c r="C42" t="s">
         <v>359</v>
@@ -4483,7 +4483,7 @@
         <v>41898</v>
       </c>
       <c r="B43" t="n">
-        <v>130071</v>
+        <v>160779</v>
       </c>
       <c r="C43" t="s">
         <v>366</v>
@@ -4540,7 +4540,7 @@
         <v>41898</v>
       </c>
       <c r="B44" t="n">
-        <v>130072</v>
+        <v>160780</v>
       </c>
       <c r="C44" t="s">
         <v>373</v>
@@ -4611,7 +4611,7 @@
         <v>41898</v>
       </c>
       <c r="B45" t="n">
-        <v>130073</v>
+        <v>160781</v>
       </c>
       <c r="C45" t="s">
         <v>380</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_99.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_99.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="540">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>taos62</t>
-  </si>
-  <si>
-    <t>06/29/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r612915140-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>33043</t>
+  </si>
+  <si>
+    <t>225491</t>
+  </si>
+  <si>
+    <t>612915140</t>
+  </si>
+  <si>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>It’s ok...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place reminds me of a NYC apartment without the doorman. People live there! We mostly saw single men walking around and in the gym. Each room is like a tiny studio apartment with a well equipped kitchen. The hallways and elevator felt kind of creaky. If you have these expectations then you’ll be okay. It is convenient to shopping and it’s in a safe area. It fringes on a light industrial/office area. </t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r578292992-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>578292992</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>A medical emergency precipitated our stay.</t>
+  </si>
+  <si>
+    <t>Hotel staff were very accommodating to our needs.  Our two small dogs were welcome during our six day stay prior to departing by car to North Carolina.   Highly recommend the Candlewood Suites to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r589834124-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>589834124</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Not impressed ...</t>
+  </si>
+  <si>
+    <t>Pros and cons as with most hotels.      The hotel is very dated, creaky. .  1st floor smells odd, not pleasant. Co workers say the upper levels are fine. My room was clean but my sheets smelled sour.  The air conditioning was really loud like it was going out.       On a positive note, laundry room is free, gym has good equipment. Full kitchen.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r587206559-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
-    <t>33043</t>
-  </si>
-  <si>
-    <t>225491</t>
-  </si>
-  <si>
     <t>587206559</t>
   </si>
   <si>
@@ -177,33 +231,6 @@
     <t>This is a standard Candlewood. A bit well worn, but well maintained and very clean. The location is excellent - near many shops and restaurants - and close to the airport. Staff was very friendly. The price was excellent.</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Larry B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r578292992-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
-  </si>
-  <si>
-    <t>578292992</t>
-  </si>
-  <si>
-    <t>05/06/2018</t>
-  </si>
-  <si>
-    <t>A medical emergency precipitated our stay.</t>
-  </si>
-  <si>
-    <t>Hotel staff were very accommodating to our needs.  Our two small dogs were welcome during our six day stay prior to departing by car to North Carolina.   Highly recommend the Candlewood Suites to anyone.</t>
-  </si>
-  <si>
-    <t>Oli0612</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r563804571-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -234,7 +261,64 @@
     <t>Nice big parking lot, close to grocery stores. Kitchenette with full fridge (with freezer) in the room with basic pots and stuff and there’s kitchen supplies like toaster you can borrow from the equipment lockers downstairs. Bathroom was clean but could use some fixing. And ours was infested by ants! Kept seeing them on the countertop, on the floor and inside the bath. Room is good size, bed is small - the king was definitely NOT a king. The heater smelled. Luckily we were there only for one night. It was a good deal and not too far from Disneyland (20mins drive) but we won’t be back. More</t>
   </si>
   <si>
-    <t>regulartravelman</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r561360011-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>561360011</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>It is typical of a Candlewood. Nice room with amenities. Laundry and fitness facilities were useful. You should try Citrus cafe at the corner of Red Hill &amp; Edinger. Their bread that they give you when you walk in is oh-so-good! Shopping complex on Barranca pkwy is half an hour walk away or a quick few minutes drive. Less than 15 minute drive to Orange County / John Wayne airport. If you have a rental car and you have to fill the tank before returning then there are 2 gas stations at the corner of Red Hill and MacArthur, just half a mile from the airport.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r543825585-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>543825585</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Clean accommodation and friendly staff</t>
+  </si>
+  <si>
+    <t>Stayed here in a 1 bedroom suite while my husband was working nearby. The front desk staff were very helpful, the suite was clean, and the location was pretty good, close to shopping and the airport. Some repairs and renos look like they have been DIYed, but the room was functional for our needs. We had our 10 month old son with us and the hotel had a great crib for him. They have a gym and laundry is free for guests. Those facilities are very well-kept. You can also borrow board games and small appliances from their lending cupboard. We did have some ants toward the middle of the stay, and the front desk staff was very responsive to this issue. We opted not to spray because of the baby, and they offered to clean our room an extra time to try to remove anything that might be attracting them. Overall, would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Stayed here in a 1 bedroom suite while my husband was working nearby. The front desk staff were very helpful, the suite was clean, and the location was pretty good, close to shopping and the airport. Some repairs and renos look like they have been DIYed, but the room was functional for our needs. We had our 10 month old son with us and the hotel had a great crib for him. They have a gym and laundry is free for guests. Those facilities are very well-kept. You can also borrow board games and small appliances from their lending cupboard. We did have some ants toward the middle of the stay, and the front desk staff was very responsive to this issue. We opted not to spray because of the baby, and they offered to clean our room an extra time to try to remove anything that might be attracting them. Overall, would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r539047515-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>539047515</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay, clean rooms, friendly staff</t>
+  </si>
+  <si>
+    <t>Easy to find place, really close to John Wayne airport. Staff were really friendly with genuine smile. Rooms were clean and the same applies to the common areas . Will most certainly return when in the area again.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r519708369-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -255,9 +339,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t>Marz J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r513855859-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -282,9 +363,6 @@
     <t>The only complaint I have is I received a very rude phone call from a woman with a nasty attitude working front desk accusing me of stomping from the people complaining below me when no one was in my suite during the day at that time. I am here on business and I work majority of morning/day. I will not be talked to or treated like that after a long day as a guest. Clearly the hospitality business is not for her. The check in was super fast and easy. Matthew was working front desk he was so professional such a pleasure to be checked in by him. He was fantastic! Bathroom was nice,spacious, and clean. Tv, fridge, micro &amp; AC worked. Clean carpeting and suite but it had a slight Oder made room smell musty... had to keep AC on high at all times to remove the smell, clean floor in kitchen. Nice kitchenette everything worked and super clean. Clean Utensils and cooking ware were provided in room, was so pleased. Even provides cleaning products and paper towels in suites. Good phone service. Clean bedding and sheets. Wifi worked. Nice size parking lot located at property with plenty of parking. Towels were clean. Big fluffy pillows were so comfortable. Elevator located at property. I'd also suggest security in parking lot, the last night of stay I had a weird man in the parking lot randomly ask me in broad...The only complaint I have is I received a very rude phone call from a woman with a nasty attitude working front desk accusing me of stomping from the people complaining below me when no one was in my suite during the day at that time. I am here on business and I work majority of morning/day. I will not be talked to or treated like that after a long day as a guest. Clearly the hospitality business is not for her. The check in was super fast and easy. Matthew was working front desk he was so professional such a pleasure to be checked in by him. He was fantastic! Bathroom was nice,spacious, and clean. Tv, fridge, micro &amp; AC worked. Clean carpeting and suite but it had a slight Oder made room smell musty... had to keep AC on high at all times to remove the smell, clean floor in kitchen. Nice kitchenette everything worked and super clean. Clean Utensils and cooking ware were provided in room, was so pleased. Even provides cleaning products and paper towels in suites. Good phone service. Clean bedding and sheets. Wifi worked. Nice size parking lot located at property with plenty of parking. Towels were clean. Big fluffy pillows were so comfortable. Elevator located at property. I'd also suggest security in parking lot, the last night of stay I had a weird man in the parking lot randomly ask me in broad daylight where he could buy some drugs. Like Really!? What kind of place is this? I will not be returning here ever again. Did not feel safe. Very disappointed. More</t>
   </si>
   <si>
-    <t>muazzams2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r513373749-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -306,7 +384,46 @@
     <t>I stayed in this hotel for over a month between selling and buying homes. The staff is really friendly and the hotel is nice. The rooms are kind of small but they have all the basic amenities including a small electric range and microwave along with a fridge. Another thing to note is that this place is pet friendly and you can bring in your pet for a small fee. They have a DVD library for renting out movies for free. The parking lot is huge and the location is just perfect. One small grip would be that they don't have a swimming pool, although they have a nice small gym and free use of laundry.Overall this is a great little hotel to stay at.More</t>
   </si>
   <si>
-    <t>booboo04</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r497213530-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>497213530</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Very clean</t>
+  </si>
+  <si>
+    <t>Clean and great check in service......I was hesitate at first, because its stated that it ws a 2.5 Star hotel...&lt; but when we got there, we were so happy it was clean and super fast friend service....It doesn't have amenities like a bar/ restaurant/coffee shop/ or spa services, but we didn't need those anyway.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r479758217-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>479758217</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Worst experience of my life.. -IHG should do something about how unprofessional they are</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel and received a horrible experience. My privacy was  violated and I specifically requested that my stay was kept confidential. I'm a fellow IHG employee at a different property, and a current hotel employee actually ended up telling people at my current workplace that I has checked in, and caused a very uncomfortable moment for me at work. I'm not exactly sure why she thought this was acceptable. I was furious that my confidentiality was violated. Being an IHG employee, I know for a fact we would never do this to anyone.Worst part was, the next day when I had to deal with all the problems this lack of confidentiality caused me, I called the GM furious and he totally blew me off.Acted like it was not a big deal at all and disregarded my feeling or how much it inconvenienced me.Didn't even offer a real apology, or to refund my night, or to follow up with me.Instead he even acted like they weren't to blame about the issue.I've been trying to get him to follow up with me all week, but every time I call  "he's gone for the day".. I'm going to contact the corporate office and make sure this isn't taken lightly.Can't believe how unprofessional they were.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County/Airport, responded to this reviewResponded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel and received a horrible experience. My privacy was  violated and I specifically requested that my stay was kept confidential. I'm a fellow IHG employee at a different property, and a current hotel employee actually ended up telling people at my current workplace that I has checked in, and caused a very uncomfortable moment for me at work. I'm not exactly sure why she thought this was acceptable. I was furious that my confidentiality was violated. Being an IHG employee, I know for a fact we would never do this to anyone.Worst part was, the next day when I had to deal with all the problems this lack of confidentiality caused me, I called the GM furious and he totally blew me off.Acted like it was not a big deal at all and disregarded my feeling or how much it inconvenienced me.Didn't even offer a real apology, or to refund my night, or to follow up with me.Instead he even acted like they weren't to blame about the issue.I've been trying to get him to follow up with me all week, but every time I call  "he's gone for the day".. I'm going to contact the corporate office and make sure this isn't taken lightly.Can't believe how unprofessional they were.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r468051292-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -330,9 +447,6 @@
     <t>I've stayed here numerous times and it's fine. It has a small kitchenette, good-sized desk/work area, and an average-sized bathroom. The area around the bed is a bit tight. The price is right and it has a good location. Fast food is a five-minute walk and if you have a car, there's a lot of businesses and food a short distance away. Cell service is good on my two carriers (AT&amp;T and VZW). Internet has been fast and reliable for me. There are several places that deliver food to the Candlewood and I've had good experiences with all. There is no shuttle to and from SNA airport, but I use a cab and it's reasonable and quick.More</t>
   </si>
   <si>
-    <t>John L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r467604416-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -351,15 +465,9 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>As the title indicates this hotel is clean, comfortable and convenient while also being COST EFFECTIVE, there is great shopping and good restaurants near by but somehow seems quiet and peaceful. The best feature of this hotel is the staff and if you are fortunate enough to deal with a young man at the front desk named John, tell him what you are interested in or what you are looking for  and he will provide you with great suggestions and directions. He was spot on directing us to a number of places my wife was interested in and NAILED EACH AND EVERYONE. I would recommend this hotel for business or pleasure, single or family it covers them all.More</t>
   </si>
   <si>
-    <t>Dan H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r465035214-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -375,7 +483,52 @@
     <t>This hotel is more frequented by people needing a small kitchenette for extended stays than for business travels.  however, with that said, the rooms are spacious and quiet, the bed is comfortable and plenty of parking.  i would stay here again if i come back to the area.</t>
   </si>
   <si>
-    <t>Dino G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r463628347-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>463628347</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>Humdrum!</t>
+  </si>
+  <si>
+    <t>Kitchen is nice and so is the full size fridge but nothing special and lacking of any unique features. The fridge is very noisy at night. We were told we were upgraded to a suite even though the place is called Suites. Housekeeping person was upset he had to clean our room! Adding insult to injury, he left a banana peel on our kitchen counter - his banana peel not our as we did not have any bananas!!! Why???Found this hotel's front desk to be the least flexible and efficient of most hotels where weI stay. Denied late checkout stating they were fully book, but when checked  online, they were still selling rooms at this place! They using an old tired trick with an experienced traveler. Nevermind, we checked out and went home!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County/Airport, responded to this reviewResponded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Kitchen is nice and so is the full size fridge but nothing special and lacking of any unique features. The fridge is very noisy at night. We were told we were upgraded to a suite even though the place is called Suites. Housekeeping person was upset he had to clean our room! Adding insult to injury, he left a banana peel on our kitchen counter - his banana peel not our as we did not have any bananas!!! Why???Found this hotel's front desk to be the least flexible and efficient of most hotels where weI stay. Denied late checkout stating they were fully book, but when checked  online, they were still selling rooms at this place! They using an old tired trick with an experienced traveler. Nevermind, we checked out and went home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r429755351-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>429755351</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>The room had a fully decked out kitchen (stove, microwave, utensils, fridge, etc.), a big desk, 47 inch TV, and the mattress was comfortable.  Would stay here again.  Friendly staff.  Clean and safe.  Close to freeway.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r424123885-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -399,9 +552,6 @@
     <t>Had a problem with air conditioner not working.  After a few days of trying different stuff they replaced it. Then the smoke alarm went bad at 1 a.m.  the only reason they all got 4 stars is because of the awesome front desk people.  They were very friendly and more than happy to make u comfortable.  So they may need improvement on maintenance and I felt an apology from management would have been professional as it was very inconvenient to have a floor soaked with water.  We had 2 rooms for a week so they need help as I never saw management,  but as I said there front desk help saves the day and they do the maintenance as they always came to fix everything while running the front desk.  Kudos to the front desk help. More</t>
   </si>
   <si>
-    <t>FSalvatore</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r372962888-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -423,9 +573,6 @@
     <t>The hotel area was good. Very quiet and clean. Check-in was fast and the reception guy greeted us in such a manner that we felt welcomed and it was a good feeling. Well we had a long drive from Vegas. The room was good enough for the two of us. Clean, well kept and having a kitchenette is a plus point. But the only setback was the curtains. We were unable to draw the curtains. So it was left like that for 3 days. No privacy for sure. Malls and supermarket were just a driving range from the hotel. It was a good location. Easy to travel anywhere. Love it!BBQ area located at the backyard and ample parking space provided which is good. Overall it was a great stay for 3 days. More</t>
   </si>
   <si>
-    <t>Louie M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r345191096-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -444,7 +591,37 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Daniel H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r342733931-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>342733931</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Great Weekend.</t>
+  </si>
+  <si>
+    <t>The staff at this hotel are very nice and welcoming. Our suite was very nice and clean and we spend a great weekend. If you are by the area I recommend this hotel, they also have a gym and a laundry room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r324356626-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>324356626</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>awesome staff...my second home</t>
+  </si>
+  <si>
+    <t>I am reviewing this property again because it deserves it.This time (my second visit), I was there for 32 nights and had great fun. The staff is super duper awesome. Felt like home. I even discovered that they had a barbeque at the back and took full use of it. I did a lot of corn on the cob there and enjoyed my time.Coffee was awesome and even found the kitchenette very useful. I would go there everytime I visit the US</t>
+  </si>
+  <si>
+    <t>September 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r316308003-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -462,15 +639,9 @@
     <t>My room was a studio suite that had a kitchen with everything except and oven, bed, bathroom, desk/kitchen table, TV, and very comfortable reclining chair.A WalMart Superstore is a short 5 minute drive or a long half-mile walk away. However, the hotel has its own mini market for those on the spot cravings.I took advantage of the free washer/dryer and complimentary laundry detergent. The workout room is in the same room.The hotel is on a major Orange County bus route with 2 buses that have stops right in front of the hotel.The hotel is near the freeway and many restaurants and shopping places are within a short 5-10 minute drive. The staff was excellent and really wanted me to have a great stay...and I did.MoreShow less</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>My room was a studio suite that had a kitchen with everything except and oven, bed, bathroom, desk/kitchen table, TV, and very comfortable reclining chair.A WalMart Superstore is a short 5 minute drive or a long half-mile walk away. However, the hotel has its own mini market for those on the spot cravings.I took advantage of the free washer/dryer and complimentary laundry detergent. The workout room is in the same room.The hotel is on a major Orange County bus route with 2 buses that have stops right in front of the hotel.The hotel is near the freeway and many restaurants and shopping places are within a short 5-10 minute drive. The staff was excellent and really wanted me to have a great stay...and I did.More</t>
   </si>
   <si>
-    <t>lizzap2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r311087497-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -489,9 +660,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>BrianMillerSantee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r290952554-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -510,10 +678,41 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>ottojuan</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r290565992-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>290565992</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Nice stay, but rooms are smaller than the competition</t>
+  </si>
+  <si>
+    <t>I've stayed at Residence Inns and Homewood Suites many times.  This was my first visit to InterContinental's version.  I was only there for two days, but this review will focus on its potential use for extended stays.
+The facility was bright and clean.  The efficiency room was spotless.  There was drawer and closet space for a lot of clothing.  The drawer space was integrated into a L-shaped desk/work area.  Lighting was very good.  The room had a DVD/VCR player, flat screen TV, recliner chair, 2 burner stove, no conventional oven, microwave oven, coffee maker. iron and board, full size frige, a very small kitchen sink (like you'd find in a home wet bar), dishwasher, dishes &amp; silverware for 2 people, decent selection of pots &amp; pans &amp; cooking utensils.  While there is kitchen stuff for 2 people, there is no eating area save the "L" of the desk and only the desk chair unless you lug the recliner out of its place.
+The room itself is about the same size as a regular Holiday Inn room, so it feels a little cramped when loaded with all this kitchen stuff.  The Residence and Homewood efficiencies I've been to are about twice as big because they have a separate, large kitchen, and a separate living area with a sofa and chairs where you can entertain guests.  If you had a guest here, you are limited to the recliner and desk chair, and...I've stayed at Residence Inns and Homewood Suites many times.  This was my first visit to InterContinental's version.  I was only there for two days, but this review will focus on its potential use for extended stays.The facility was bright and clean.  The efficiency room was spotless.  There was drawer and closet space for a lot of clothing.  The drawer space was integrated into a L-shaped desk/work area.  Lighting was very good.  The room had a DVD/VCR player, flat screen TV, recliner chair, 2 burner stove, no conventional oven, microwave oven, coffee maker. iron and board, full size frige, a very small kitchen sink (like you'd find in a home wet bar), dishwasher, dishes &amp; silverware for 2 people, decent selection of pots &amp; pans &amp; cooking utensils.  While there is kitchen stuff for 2 people, there is no eating area save the "L" of the desk and only the desk chair unless you lug the recliner out of its place.The room itself is about the same size as a regular Holiday Inn room, so it feels a little cramped when loaded with all this kitchen stuff.  The Residence and Homewood efficiencies I've been to are about twice as big because they have a separate, large kitchen, and a separate living area with a sofa and chairs where you can entertain guests.  If you had a guest here, you are limited to the recliner and desk chair, and the recliner is wedged next to the bed.  Candlewood might work for me for a week if I did not want to go to a restaurant for every meal, but when I am at a location for several weeks or more, I want the feel of an apartment, not a room, so Residence and Homewood get the nod (albeit more expensive).The competition also provides free hot breakfast and most have a free happy hour with hot snack foods.,  The also have outdoor play areas for adults or kids.A plus for Candlewood is their unique policy of free laundry facilities, including laundry soap and fabric softener.  Their free Wi-Fi signal was excellent.As others have mentioned, this is not the place to stay without a car.  The nearest restaurants are a long walk and are only fast food, and is also the site of two mini-marts. A real grocery store is a good drive.If you are not going to use the kitchen facilities, I'd recommend the nearby Quality Suites.  It's usually cheaper, the rooms are twice as large (a bedroom and a living room), and there is a free made to order hot breakfast.  You also get daily maid service whereas Candlewood cleans your room once a week, and it has a full time staff whereas Candlewood's office is closed from 11PM to 7 AM.My 2 days stay was very pleasant, the staff was very helpful, and I'd gladly stay there again for a few nights if the price was right.  Of the hotels in the immediate area, Candlewood is the newest and it shows.  For me, it is not a realistic competitor for very long stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed at Residence Inns and Homewood Suites many times.  This was my first visit to InterContinental's version.  I was only there for two days, but this review will focus on its potential use for extended stays.
+The facility was bright and clean.  The efficiency room was spotless.  There was drawer and closet space for a lot of clothing.  The drawer space was integrated into a L-shaped desk/work area.  Lighting was very good.  The room had a DVD/VCR player, flat screen TV, recliner chair, 2 burner stove, no conventional oven, microwave oven, coffee maker. iron and board, full size frige, a very small kitchen sink (like you'd find in a home wet bar), dishwasher, dishes &amp; silverware for 2 people, decent selection of pots &amp; pans &amp; cooking utensils.  While there is kitchen stuff for 2 people, there is no eating area save the "L" of the desk and only the desk chair unless you lug the recliner out of its place.
+The room itself is about the same size as a regular Holiday Inn room, so it feels a little cramped when loaded with all this kitchen stuff.  The Residence and Homewood efficiencies I've been to are about twice as big because they have a separate, large kitchen, and a separate living area with a sofa and chairs where you can entertain guests.  If you had a guest here, you are limited to the recliner and desk chair, and...I've stayed at Residence Inns and Homewood Suites many times.  This was my first visit to InterContinental's version.  I was only there for two days, but this review will focus on its potential use for extended stays.The facility was bright and clean.  The efficiency room was spotless.  There was drawer and closet space for a lot of clothing.  The drawer space was integrated into a L-shaped desk/work area.  Lighting was very good.  The room had a DVD/VCR player, flat screen TV, recliner chair, 2 burner stove, no conventional oven, microwave oven, coffee maker. iron and board, full size frige, a very small kitchen sink (like you'd find in a home wet bar), dishwasher, dishes &amp; silverware for 2 people, decent selection of pots &amp; pans &amp; cooking utensils.  While there is kitchen stuff for 2 people, there is no eating area save the "L" of the desk and only the desk chair unless you lug the recliner out of its place.The room itself is about the same size as a regular Holiday Inn room, so it feels a little cramped when loaded with all this kitchen stuff.  The Residence and Homewood efficiencies I've been to are about twice as big because they have a separate, large kitchen, and a separate living area with a sofa and chairs where you can entertain guests.  If you had a guest here, you are limited to the recliner and desk chair, and the recliner is wedged next to the bed.  Candlewood might work for me for a week if I did not want to go to a restaurant for every meal, but when I am at a location for several weeks or more, I want the feel of an apartment, not a room, so Residence and Homewood get the nod (albeit more expensive).The competition also provides free hot breakfast and most have a free happy hour with hot snack foods.,  The also have outdoor play areas for adults or kids.A plus for Candlewood is their unique policy of free laundry facilities, including laundry soap and fabric softener.  Their free Wi-Fi signal was excellent.As others have mentioned, this is not the place to stay without a car.  The nearest restaurants are a long walk and are only fast food, and is also the site of two mini-marts. A real grocery store is a good drive.If you are not going to use the kitchen facilities, I'd recommend the nearby Quality Suites.  It's usually cheaper, the rooms are twice as large (a bedroom and a living room), and there is a free made to order hot breakfast.  You also get daily maid service whereas Candlewood cleans your room once a week, and it has a full time staff whereas Candlewood's office is closed from 11PM to 7 AM.My 2 days stay was very pleasant, the staff was very helpful, and I'd gladly stay there again for a few nights if the price was right.  Of the hotels in the immediate area, Candlewood is the newest and it shows.  For me, it is not a realistic competitor for very long stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r286561306-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>286561306</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Had a good stay</t>
+  </si>
+  <si>
+    <t>I stayed here with my dog (took off half a star for the pet fee - shouldn't be necessary imo) to escape from July 4th fireworks. Had a very pleasant stay. The suite is comfortable, great bathroom, spacious. Also deducted half a star for not having USB charging ports as a lot of modern hotels now have. Very nice staff, no complaints, I'll probably stay here again next July 4th! Very clean hotel &amp; the bed was very comfortable too.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r284747468-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -531,9 +730,6 @@
     <t>The facilities in this hotel are very good and the staff is excellent, very helpful and they go out of their way to help the guest and  make your stay the best (specially Alrich, Norman and John).  I recommend this hotel very highly.</t>
   </si>
   <si>
-    <t>ShuchiThakur</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r271908720-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -555,9 +751,6 @@
     <t>This hotel has a homely feel. At the onset, it looks like a small hotel, but believe me its not small. It has many many rooms. In Fact, they are small suites with a kitchnette attached. I stayed with my mother and requested for two queen beds. The beds were superbly comfortable and huge.The kitchnette is a big plus as for long stay you need the facility to cook small meals. There are plenty of pots and pans for cooking. The only problem is that the electric stove was quite low on heat so we could not cook our indian curries. They have done this for security reasons. The staff is very helpful as they guided us on sightseeing. The free laundry is advantageous and they have a small fitness room too. There is a small shop where you can make tea/coffee for free and buy limited eatables in case of need. They have a huge parking so bringing you own car is not a problem.The room has a big TV, microwave and a decent size refrigerator.The only downside, if we may say, is that the housekeeping is done once a week which is a bit less. Alls aid and done, wonderful place to stay and i would stay there again.More</t>
   </si>
   <si>
-    <t>FamilleSB</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r269664366-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -582,7 +775,46 @@
     <t>Needed to visit a local company, took the train so had no car.  This is not a great location if you don’t have a car, there are no dining options close by and the hotel has a very limited selection of pre-packaged foods that you can microwave in your room.  This is a budget hotel and is perfect for someone who just needs a safe, clean and efficient hotel.  There are absolutely no frills, there is not even a lobby to speak of.  The room was perfectly clean, the bed was comfortable.  My room had a weird smell though, couldn’t tell what it was, maybe it just needed a good airing out.  The staff that I encountered were great.More</t>
   </si>
   <si>
-    <t>travel447</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r258041068-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>258041068</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>Nice and Clean Property</t>
+  </si>
+  <si>
+    <t>They let you use laundry service but charge you for toothpaste. The room is nice, lean and spacious. Furniture is a bit dated specially the phone. But you have a whole kitchen with utensils and cooking pot. They even have popcorn in the microwave and movies DVDs for you to rent out. I would stay there again.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r252673686-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>252673686</t>
+  </si>
+  <si>
+    <t>02/04/2015</t>
+  </si>
+  <si>
+    <t>Nice staff</t>
+  </si>
+  <si>
+    <t>I so want to give a high review of this property! The front desk gentlemen were unfailingly polite, accurate, and helpful, even providing a bag of ice for a leg wound. The location is very convenient to SNA, just north on the 55 with an east exit onto Dyer and u-turn at Red Hill; and the return to SNA is even easier because of the road beds leading directly onto the airport property: just turn right out of the hotel, going west on Dyer further than you think could possibly be correct, and turn left where the 55 South sign points you directly onto the on-ramp. You can refuel your rental car on Dyer before that point.On the other hand, the halls smell like food (oddly, ketchup), no doubt because the rooms have kitchens. We were only there for a quick overnight and thus didn't have to juggle the needs of longer-term guests who must cook in their rooms. The price was oddly high compared to other properties that at least offer a free breakfast, no doubt because ours was just a one-night stay.  The air conditioning system was loud enough that we had to leave it off in order to sleep soundly and thus awoke uncomfortably warm.So that's why I can't give the property a full five stars, even though I wish I could.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/Airport, responded to this reviewResponded February 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2015</t>
+  </si>
+  <si>
+    <t>I so want to give a high review of this property! The front desk gentlemen were unfailingly polite, accurate, and helpful, even providing a bag of ice for a leg wound. The location is very convenient to SNA, just north on the 55 with an east exit onto Dyer and u-turn at Red Hill; and the return to SNA is even easier because of the road beds leading directly onto the airport property: just turn right out of the hotel, going west on Dyer further than you think could possibly be correct, and turn left where the 55 South sign points you directly onto the on-ramp. You can refuel your rental car on Dyer before that point.On the other hand, the halls smell like food (oddly, ketchup), no doubt because the rooms have kitchens. We were only there for a quick overnight and thus didn't have to juggle the needs of longer-term guests who must cook in their rooms. The price was oddly high compared to other properties that at least offer a free breakfast, no doubt because ours was just a one-night stay.  The air conditioning system was loud enough that we had to leave it off in order to sleep soundly and thus awoke uncomfortably warm.So that's why I can't give the property a full five stars, even though I wish I could.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r250412598-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -612,9 +844,6 @@
     <t>The room in this Candlewood was clean and nice size. It had a stove, microwave, and full refrigerator. There is no ice in the bldg so yo must remember to turn the refrigerator ice maker on upon arrival so it can make ice. Good room climate control and ample closet space. The hotel is in a quiet location.  Front desk hours are from 7am-11pm.  Elevator and hallways were clean but didn't have a fresh smell.  The hotel has an exercise room with a variety of machines and weights.  There is no complimentary breakfast and cupboard items are not a bargain plus the cupboard was basically bare when I was there. The complimentary WIFI was easy to connect.  TV channels are limited but do have most ESPN channels and HBO. Bed comfort was OK but you can only get a queen bed in this hotel.  IHG Reward members get nothing but reduced points at this hotel. This hotel will do as a port in a storm but its not a good value for the rate paid. Moreover, there are much better choices at comparable Marriott, etc, hotels.More</t>
   </si>
   <si>
-    <t>nataraj_panakanti</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r248466519-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -630,9 +859,6 @@
     <t>Stayed here for about 80 days and had quite a comfortable stay. Got a good deal on the room rates for an extended stay. Staff was courteous. No complementary breakfast, since they had kitchen in the rooms. Plenty of food places within 2 mile radius, so no complaints. Rooms were quite nice and clean. However some of the guests in smoking rooms went overboard and the hallway used to smell a little of cigarette smoke. Of course, the hotel staff is not to be blamed for it.Will go back for an extended stay, if I visit the Orange County area again.</t>
   </si>
   <si>
-    <t>Marie G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r247105390-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -660,7 +886,43 @@
     <t>The hotel location is quiet, away from any busy road or Freeway noise, and airport noise ends at 11pm and doesn't resume until 7 a.m. so that was no problem either.  It's also located centrally which makes getting to just about any Orange County location pretty easy. We had a Studio Suite, which provided all the basic necessities to settle in for a bit and save some money on eating out every meal (this included dishes and utensils!), and it also had some work space.The "suite" was comfortable but not fancy in any way.  We chose the hotel to be close to central Santa Ana, where we had to make early moring meetings. Getting there by surface streets was an easy 15 minute drive. And since we got a special deal on the suite, it was a good value too.More</t>
   </si>
   <si>
-    <t>Viking94708</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r237032055-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>237032055</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Excellent hotel for short or long term stay</t>
+  </si>
+  <si>
+    <t>I travel often to the Orange County area on business, sometimes once a week. I've been staying at this property since 2008. This hotel has always worked out great for me. I've never had any problems with reservations or service, and my stay has always been good.Regarding the reviewers complaining about lack of a restaurant, breakfast, pool, etc. Please realize that this property is geared towards extended stay guests. They have a snack room where items can be purchased on an honor system. There are many restaurants within a short driving distance.The rooms are clean and well maintained. The AC/Heating systems work well. The rooms have recently been renovated, and all have wide screen TVs. All rooms have a kitchenette.The rooms are fairly quiet, and the beds are comfortable.The night manager, Norm, has always been very friendly and accommodating, greeting with a smile every time, and always remembering my name.This hotel is almost like my home away from home!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I travel often to the Orange County area on business, sometimes once a week. I've been staying at this property since 2008. This hotel has always worked out great for me. I've never had any problems with reservations or service, and my stay has always been good.Regarding the reviewers complaining about lack of a restaurant, breakfast, pool, etc. Please realize that this property is geared towards extended stay guests. They have a snack room where items can be purchased on an honor system. There are many restaurants within a short driving distance.The rooms are clean and well maintained. The AC/Heating systems work well. The rooms have recently been renovated, and all have wide screen TVs. All rooms have a kitchenette.The rooms are fairly quiet, and the beds are comfortable.The night manager, Norm, has always been very friendly and accommodating, greeting with a smile every time, and always remembering my name.This hotel is almost like my home away from home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r236736634-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>236736634</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>OK for the price and location</t>
+  </si>
+  <si>
+    <t>It's one of the higher end 3 star business hotels. Lived in a Studio for a week and found the room to be well equipped, clean and comfortable. Nothing apart from the ordinary here, rooms cleaned once a week and a honour system 24 hours Cafe made life simple. Free Laundry and WiFi.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r225513153-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -681,9 +943,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/Airport, responded to this reviewResponded September 14, 2014</t>
   </si>
   <si>
@@ -693,9 +952,6 @@
     <t>I have stayed at somewhere between 7-9 Candlewood properties and they are about as identical and uneventful in consistency as I have seen from a small brand within a hotel chain.  Where I would give this one high marks is on location (quiet and perfect for SNA/Irvine/South Coast Plaza), ease of parking and convenience and just completing a moderate renovation.  The real problem is with the chain, Intercontinental Hotels.  They have gotten greedy and have made it much more difficult to achieve loyalty points (Rewards Club), and very lame promotional offers compared to other hotel companies.  For example, you could stay in a decent Courtyard or Hampton Inn for the same redemption level as this place.  They are not relatable hotel types.  I asked for a late check out on a weekend that was DEAD, I was given until 1 pm.  It's another example of the lack of aggressive hospitality that you see more at other chains.  They need to do better or sell the chain to a better lodging company, which I think will happen next year.More</t>
   </si>
   <si>
-    <t>Mike B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r224878107-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -711,9 +967,6 @@
     <t>if you are looking for a good clean room only this is a good alternative.  No pool no food.  Have to walk about a mile and a half to get to any food.  Clean and very comfortable beds nice flatscreen in rooms.  Rooms have kitchens as well.</t>
   </si>
   <si>
-    <t>CandlelitDream</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r223313048-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -732,7 +985,34 @@
     <t>This was a really nice stay overall I have to say. I see why it's rated highly. The grounds were well kept and felt pretty welcoming. Parking was no problem as the lot was spacious. Checking in was fairly easy as our reservations were already made online. We only stayed for one night but everything was comfortable including our queen size bed. The fridge and sink area were clean along with the very spacious desk which we made good use of. The tv was pretty awesome, we brought a console to make good use of it (movies, games etc)! One of the things that we missed out on and I think others have too is the shade curtains. I was trying to figure out trying to close them to block the sun in the morning and didn't realize there was a second track (closest to the window). Granted, I was half asleep hahaha. Lots of things to do nearby too! Anyway, I give 4 points because, to me going into the lobby and into the hotel, it was really stuffy and had a slightly odd smell. Just kinda seemed like there was no airflow through the hallways etc like some doors or windows needed to be opened. I also found a hair in my tub and that type of thing grosses me out. So all in all would I stay again? Most definitely, it was worth the value and the...This was a really nice stay overall I have to say. I see why it's rated highly. The grounds were well kept and felt pretty welcoming. Parking was no problem as the lot was spacious. Checking in was fairly easy as our reservations were already made online. We only stayed for one night but everything was comfortable including our queen size bed. The fridge and sink area were clean along with the very spacious desk which we made good use of. The tv was pretty awesome, we brought a console to make good use of it (movies, games etc)! One of the things that we missed out on and I think others have too is the shade curtains. I was trying to figure out trying to close them to block the sun in the morning and didn't realize there was a second track (closest to the window). Granted, I was half asleep hahaha. Lots of things to do nearby too! Anyway, I give 4 points because, to me going into the lobby and into the hotel, it was really stuffy and had a slightly odd smell. Just kinda seemed like there was no airflow through the hallways etc like some doors or windows needed to be opened. I also found a hair in my tub and that type of thing grosses me out. So all in all would I stay again? Most definitely, it was worth the value and the guys at the front desk were very nice!More</t>
   </si>
   <si>
-    <t>Jeff J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r205977023-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>205977023</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>Loved our stay</t>
+  </si>
+  <si>
+    <t>The good: Got in and were given a free upgrade to a 1 bedroom! That was AWESOME. Needed a crib and it was already in our room ready to go. Soooooo nice. Kitchen was perfect. The not-as-good: Where was the pool?? Apparently there was one, but when we looked we failed at finding it. And no breakfast. But, it was still a really great stay. I would definitely stay there again. Great happy and helpful customer service and a clean room. Yes.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r203394675-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>203394675</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r201301918-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -756,9 +1036,6 @@
     <t>Stayed here on a business trip for 3 weeks.  It was located in a central location to many shopping areas, restaurants and freeways.  The staff was very attentive, including the cleaning crew.  They only clean/exchange towels and bedding once a week so if staying for an extended time with family, you will need to take your towels to the front desk where they exchange them for you.  The kitchenette in the suite was very well maintained and included just about everything I needed to save some money by eating in.  The 24 hour FREE laundry was a definite plus and they have the "Candlewood Cupboard" where you can purchase snacks, soda, water and get free coffee.  I would definitely stay here again and would recommend this hotel for those traveling on business.More</t>
   </si>
   <si>
-    <t>jaysnow2912</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r198888140-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -774,9 +1051,6 @@
     <t>Stayed in this hotel for five (5) weeks.Pros:24hr free laundry24hr free work out gym24hr mini convenience storeNear to the district (watch movies, groceries)Near WalmartFriendly StaffCons:Room service is only every SaturdayNo restaurants or breakfastNo restaurants nearby (Panda express is 0.5 miles away)</t>
   </si>
   <si>
-    <t>NVTravele</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r196625059-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -795,7 +1069,51 @@
     <t>The hotel is clean staff was a pleasant liar.  He told us they did not HAVE to give us two beds because we booked through Hotels.com.  We got no break on price anyway however the person in front of me paid 79.  It was deceptive and not how alleged guests expect to be treaded.  Horrible experienceThe claim to be full was a lie the parking lot is empty and the room down the hall had either a dead guest or was empty because the clock alarm was blaring for hoursIf all the hotels are as unprofessional as this I will avoid from now on.  I am glad your company didn't build in my community it would have been an embarrassment to have our visitors treated so unfairly.We paid the FULL price according get to YOUR website Very shabby shabby service.More</t>
   </si>
   <si>
-    <t>Shinyfrogeditor</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r194908090-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>194908090</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>Like home</t>
+  </si>
+  <si>
+    <t>Candlewood was great for my business trip.  It was well stocked with tupperware, a pasta pot, and after staying at another extended stay hotel, I was glad to see a hair blow dryer, sponges for washing the dishes, and nice blankets.There was an issue with my heater and unfortunately the hotel is not staffed 24 hours so I had to wait until the next day for it to be fixed, but the staff were friendly and helpful.You get a better rate when you stay at least 7 days.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r185406456-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>185406456</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>Ooooh That Smell!</t>
+  </si>
+  <si>
+    <t>Stayed here for two days when a close friend of mine flew in on a business trip. It's a very clean looking property.It appeared to be set up for extended stays in that there is no daily housekeeping service. If you need more towels before the scheduled rotation you have to go to the front desk. It has a gym and laundry facility for guests. nice kitchen area in the room, with a 2 burner stove, microwave, refrigerator with "working" icemaker, dishwasher, pots, pans, plates, utensils, small dining area, etc. Parking was convenient. Both nights was able to park close to the entrance. Shower, water was nice hot, the way I like . Bathroom was very clean and had separate fan and light switches, just a personal perference of mine.  The ONLY thing that kept me from giving this property a 4 was the smell we noticed when we walked into the room. At first we thought it was just the staleness from the air coming out of the AC unit so we let the AC run and went out but upon our return that evening, the smell was still there. If I had to choose a source, I'd say organic versus chemical. It wasn't like bleach or anything similar. it was more like an earthy odor or even slightly "meat" like.  Even leaving a window cracked didn't completely clear it out. 
+Just to be fair, the issue with the...Stayed here for two days when a close friend of mine flew in on a business trip. It's a very clean looking property.It appeared to be set up for extended stays in that there is no daily housekeeping service. If you need more towels before the scheduled rotation you have to go to the front desk. It has a gym and laundry facility for guests. nice kitchen area in the room, with a 2 burner stove, microwave, refrigerator with "working" icemaker, dishwasher, pots, pans, plates, utensils, small dining area, etc. Parking was convenient. Both nights was able to park close to the entrance. Shower, water was nice hot, the way I like . Bathroom was very clean and had separate fan and light switches, just a personal perference of mine.  The ONLY thing that kept me from giving this property a 4 was the smell we noticed when we walked into the room. At first we thought it was just the staleness from the air coming out of the AC unit so we let the AC run and went out but upon our return that evening, the smell was still there. If I had to choose a source, I'd say organic versus chemical. It wasn't like bleach or anything similar. it was more like an earthy odor or even slightly "meat" like.  Even leaving a window cracked didn't completely clear it out. Just to be fair, the issue with the smell may have certainly been just this room (225) in particular but when you only stay in one room for the first time, its all you have to base your opinion on. If you stay here, check out your room first to make sure it looks AND smells ok. My companion had a rough day before her flight and just wanted to relax so we didn't make a fuss to management.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/Airport, responded to this reviewResponded December 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for two days when a close friend of mine flew in on a business trip. It's a very clean looking property.It appeared to be set up for extended stays in that there is no daily housekeeping service. If you need more towels before the scheduled rotation you have to go to the front desk. It has a gym and laundry facility for guests. nice kitchen area in the room, with a 2 burner stove, microwave, refrigerator with "working" icemaker, dishwasher, pots, pans, plates, utensils, small dining area, etc. Parking was convenient. Both nights was able to park close to the entrance. Shower, water was nice hot, the way I like . Bathroom was very clean and had separate fan and light switches, just a personal perference of mine.  The ONLY thing that kept me from giving this property a 4 was the smell we noticed when we walked into the room. At first we thought it was just the staleness from the air coming out of the AC unit so we let the AC run and went out but upon our return that evening, the smell was still there. If I had to choose a source, I'd say organic versus chemical. It wasn't like bleach or anything similar. it was more like an earthy odor or even slightly "meat" like.  Even leaving a window cracked didn't completely clear it out. 
+Just to be fair, the issue with the...Stayed here for two days when a close friend of mine flew in on a business trip. It's a very clean looking property.It appeared to be set up for extended stays in that there is no daily housekeeping service. If you need more towels before the scheduled rotation you have to go to the front desk. It has a gym and laundry facility for guests. nice kitchen area in the room, with a 2 burner stove, microwave, refrigerator with "working" icemaker, dishwasher, pots, pans, plates, utensils, small dining area, etc. Parking was convenient. Both nights was able to park close to the entrance. Shower, water was nice hot, the way I like . Bathroom was very clean and had separate fan and light switches, just a personal perference of mine.  The ONLY thing that kept me from giving this property a 4 was the smell we noticed when we walked into the room. At first we thought it was just the staleness from the air coming out of the AC unit so we let the AC run and went out but upon our return that evening, the smell was still there. If I had to choose a source, I'd say organic versus chemical. It wasn't like bleach or anything similar. it was more like an earthy odor or even slightly "meat" like.  Even leaving a window cracked didn't completely clear it out. Just to be fair, the issue with the smell may have certainly been just this room (225) in particular but when you only stay in one room for the first time, its all you have to base your opinion on. If you stay here, check out your room first to make sure it looks AND smells ok. My companion had a rough day before her flight and just wanted to relax so we didn't make a fuss to management.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r184317173-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -813,9 +1131,6 @@
     <t>The staff at the front desk was very friendly at check-in and let us check-in early since we got to the hotel a little bit early from LAX.Reason for 3 - stars: We stayed from a Wednesday --&gt; Monday and not even ONCE did room service show up to clean the room and restock towels etc.MoreShow less</t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
     <t>Alrichj, Front Office Manager at Candlewood Suites Orange County/Airport, responded to this reviewResponded December 19, 2013</t>
   </si>
   <si>
@@ -825,9 +1140,6 @@
     <t>The staff at the front desk was very friendly at check-in and let us check-in early since we got to the hotel a little bit early from LAX.Reason for 3 - stars: We stayed from a Wednesday --&gt; Monday and not even ONCE did room service show up to clean the room and restock towels etc.More</t>
   </si>
   <si>
-    <t>agchen1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r164132399-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -849,9 +1161,6 @@
     <t>Good points:  The hotel has free wi-fi internet, which was inconsistent in speed but generally ok, free &amp; safe parking, a decent gym, self-service laundry (inexpensive), free water, self-service pantry area (pay for snacks) &amp; good size desk as well as kitchen area.  You can also rent DVD's for free at the front desk.  The hotel is only 3 minutes away from Walmart &amp; 5 minutes away from The District (which has Target, Costco, Whole Foods &amp; other stores, restaurants &amp; a cinema).  Our room faced the parking lot but we didn't have any trouble with noise from the 2 main streets facing us.Bad points:  Unfortunately, the luggage was self-service as well although luggage carts are available.  Room cleaning is also done only once a week, which we didn't mind because we did lots of shopping &amp; didn't have a chance to store &amp; lock everything away daily; the rooms were clean anyways &amp; this allowed for environmental use of sheets &amp; towels (although not all visitors might appreciate this).  Our room's bath tub was also clogged initially &amp; the water felt slippery but both problems went away (repairman fixed the clog &amp; water no longer left "a layer" on hands/body).More</t>
   </si>
   <si>
-    <t>chelly12364</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r162539898-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -873,7 +1182,43 @@
     <t>This is my first time staying at a Candlewood Suites and this place is pretty new so I had no complaints at all.  Comfy beds, large working space, fridge and kitchen facilities, plenty of outlets, large bathroom, all the things I look for when I stay somewhere.  You don't get a free breakfast and although there is a little "store" for snacks, they didn't have a real selection of breakfast items.  That was the only downside for me.  That, and they did not have actual coffee creamer - just the powdered stuff, but they told me they ran out.  Otherwise, very nice!  Oh, and there is a laundry facility there as well which is great for an extended stay.More</t>
   </si>
   <si>
-    <t>wreckit</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r158149434-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>158149434</t>
+  </si>
+  <si>
+    <t>04/18/2013</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and clean, with modern decor.  It is located close to Burbank airport, shops, freeways and about15 minutes from Irvine Spectrum.  Nice little gym with good workout equipment.  Hotel staff was friendly.  I would stay there again.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r157604243-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>157604243</t>
+  </si>
+  <si>
+    <t>04/13/2013</t>
+  </si>
+  <si>
+    <t>Great for a long term stay</t>
+  </si>
+  <si>
+    <t>After a quick job relocation, we've been staying in this hotel for three weeks now, while house hunting. It is clean and comfortable and convenient, and a great deal for the price. Well run with responsive, friendly staff. Free laundry, nice gym.  Highly recommended. Only two negatives are the noise from the airport (which you get used to, but people who are highly sensitive to noise could have a problem) and the lack of a real business center. The staff at the front desk will print and fax things for you, but it would be really nice to have a little room with a computer, printer, and fax that guests could use. But all the plusses still make this a five star place.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>After a quick job relocation, we've been staying in this hotel for three weeks now, while house hunting. It is clean and comfortable and convenient, and a great deal for the price. Well run with responsive, friendly staff. Free laundry, nice gym.  Highly recommended. Only two negatives are the noise from the airport (which you get used to, but people who are highly sensitive to noise could have a problem) and the lack of a real business center. The staff at the front desk will print and fax things for you, but it would be really nice to have a little room with a computer, printer, and fax that guests could use. But all the plusses still make this a five star place.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r154305591-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -897,9 +1242,6 @@
 To get all these at 85 USD, it seems almost...The last time I visited the US was 8 years ago and this time, Candlewood completely impressed me again. Their unconventional approaches to deliver value to customers show that they have in depth understanding of the hospitality industry. Many features in Candlewood is not found anywhere else by any hotel in the world.First, the cleanliness is simply incredible! I can never understand how a hotel room become so extremely clean that it looks like newly renovated. I was upgraded to a suite room room and the bed and pillows were so good, I felt like I was floating. It really help me to overcome my pan-pacific flight and jet lag.The kitchen which is not mini had ceramic hob, more than ample cutleries, coffee machine, take away coffee cups, huge microwave and refrigerator, coffee &amp; decaf and the pop-corn was a delightful addition.There were flat screen TV in the living room and the bed room. All the furniture were ultra, clean of high quality and seemingly new. The utility table was large and well positioned, chairs and sofas was of a high standard better than many 5 stars hotels. Wardrobes were well positioned storage.There was a reasonably good gym, mini food outlet and laundry room with good and free equipment.Within 1 km, you will find Walmart, Taco Bell and a little further Cosco, AMC etc etc.To get all these at 85 USD, it seems almost illegal! I am a total fan of Candlewood, it has everything I need and none of the stuff I don't need.South LA is not well served by public transport except Disneyland area so it can be quite expensive to get to and from the hotel if you are not driving.MoreShow less</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>The last time I visited the US was 8 years ago and this time, Candlewood completely impressed me again. Their unconventional approaches to deliver value to customers show that they have in depth understanding of the hospitality industry. Many features in Candlewood is not found anywhere else by any hotel in the world.
 First, the cleanliness is simply incredible! I can never understand how a hotel room become so extremely clean that it looks like newly renovated. I was upgraded to a suite room room and the bed and pillows were so good, I felt like I was floating. It really help me to overcome my pan-pacific flight and jet lag.
 The kitchen which is not mini had ceramic hob, more than ample cutleries, coffee machine, take away coffee cups, huge microwave and refrigerator, coffee &amp; decaf and the pop-corn was a delightful addition.
@@ -909,9 +1251,6 @@
 To get all these at 85 USD, it seems almost...The last time I visited the US was 8 years ago and this time, Candlewood completely impressed me again. Their unconventional approaches to deliver value to customers show that they have in depth understanding of the hospitality industry. Many features in Candlewood is not found anywhere else by any hotel in the world.First, the cleanliness is simply incredible! I can never understand how a hotel room become so extremely clean that it looks like newly renovated. I was upgraded to a suite room room and the bed and pillows were so good, I felt like I was floating. It really help me to overcome my pan-pacific flight and jet lag.The kitchen which is not mini had ceramic hob, more than ample cutleries, coffee machine, take away coffee cups, huge microwave and refrigerator, coffee &amp; decaf and the pop-corn was a delightful addition.There were flat screen TV in the living room and the bed room. All the furniture were ultra, clean of high quality and seemingly new. The utility table was large and well positioned, chairs and sofas was of a high standard better than many 5 stars hotels. Wardrobes were well positioned storage.There was a reasonably good gym, mini food outlet and laundry room with good and free equipment.Within 1 km, you will find Walmart, Taco Bell and a little further Cosco, AMC etc etc.To get all these at 85 USD, it seems almost illegal! I am a total fan of Candlewood, it has everything I need and none of the stuff I don't need.South LA is not well served by public transport except Disneyland area so it can be quite expensive to get to and from the hotel if you are not driving.More</t>
   </si>
   <si>
-    <t>honesty59</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r152574183-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -928,9 +1267,6 @@
   </si>
   <si>
     <t>February 2013</t>
-  </si>
-  <si>
-    <t>Danreviewscars</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r144679518-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -970,7 +1306,46 @@
 For the value, I would absolutely...Had a reservation with another hotel which I admittedly messed up (booked the wrong date, and they were sold out for the correct night).Booked with Candlewood Suites OC/Airport at 4pm, and arrived 45 minutes later to a welcoming staff and clean room.The property appears to have been recently remodeled, and the resulting decor is stunning.  From a business traveler's perspective, there's nothing better than pulling up to a clean, well-lit open parking lot with ample space.I was offered a soda as soon as I checked in, and given loads of step-by-step information on how to make my stay more enjoyable.The rooms are beautiful and feature a fully-stocked kitchen with long work/dining table, large flat-screen TVs in the living area and bedroom, modern furnishings and decor, and a calming overall ambiance.Wi-Fi was free and lightning fast, HVAC was built-in (no ugly units hanging from the walls), and there was a fitness center/convenience store/laundry facility on site.Downsides?  The hotel wasn't always a non-smoking property, and my room smelled faintly of stale cigarette smoke.  If possible, ask for a room on a floor which was always non-smoking.  Availability during my last-minute trip was limited, so I took whatever I received.Nothing is really within walking distance, and there's an eerie abandoned military base right across the street.  I never felt unsafe, though, and with a car, the location is just fine.For the value, I would absolutely stay here again.More</t>
   </si>
   <si>
-    <t>Jerome T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r139622381-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>139622381</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>Brush your teeth with boiling water</t>
+  </si>
+  <si>
+    <t>So... I hate giving poor reviews of the Holiday Inn chain because mostly I get very lucky staying at the various iterations of the famed Priority Club (Staybridge, Holiday inn Express etc). True to form - the service of most of the staff was very good. Big smile, warm welcome. Upgraded me to a one bedroom. Followed my request for a quiet room. By themselves they could have been four stars. But the cold water tap in the bathroom sink didn't work. Only boiling water came out. I advised the evening front desk when I left for dinner who promised they would sort it out, and didn't. I got in late night, too tired to put up a fight with them, and yes, brushed my teeth in boiling water. Then slept in the queen bed which was the shortest queen bed I've ever slept in... I'm 6 2" and my feet hung off the end. In the morning, I brushed my teeth in the kitchen sink and hit my head on the low kitchen cabinets... thank you very much. So, the high reviews of the many other guests here-in aside, let me tell you. It wasn't good enough to justify the $100 odd bucks it was per night.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, IHGCare at Candlewood Suites Orange County/Airport, responded to this reviewResponded September 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2012</t>
+  </si>
+  <si>
+    <t>So... I hate giving poor reviews of the Holiday Inn chain because mostly I get very lucky staying at the various iterations of the famed Priority Club (Staybridge, Holiday inn Express etc). True to form - the service of most of the staff was very good. Big smile, warm welcome. Upgraded me to a one bedroom. Followed my request for a quiet room. By themselves they could have been four stars. But the cold water tap in the bathroom sink didn't work. Only boiling water came out. I advised the evening front desk when I left for dinner who promised they would sort it out, and didn't. I got in late night, too tired to put up a fight with them, and yes, brushed my teeth in boiling water. Then slept in the queen bed which was the shortest queen bed I've ever slept in... I'm 6 2" and my feet hung off the end. In the morning, I brushed my teeth in the kitchen sink and hit my head on the low kitchen cabinets... thank you very much. So, the high reviews of the many other guests here-in aside, let me tell you. It wasn't good enough to justify the $100 odd bucks it was per night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r139587214-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>139587214</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>This hotel had everything I needed to make my extended stay easy. I stayed in the hotel prior to moving into my apartment for 2 months. They have the nice little pantry to buy essentials and to borrow small kitchen appliances. Staff was great and the price was appropriate for an extended stay. I think I have found a new chain for my long term stays.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r139029359-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -991,9 +1366,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Tom S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r131930114-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1012,9 +1384,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>ThomasD91</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r131102872-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1036,7 +1405,49 @@
     <t>I stayed at this hotel for a day on business. It is at good location, close to John Wayne airport and near a major shopping mall with many restaurants, shops and grocery store.The room was very clean and has been recently renovated. The person at the reception was very helpful and courteous.The Holiday Inn group must have hired a real good interior designer a couple of years ago and it shows because furniture, arrangement are really good in many of these chain-hotels now and not as bland as many other efficiency type hotels. I personally like the interior, it is above standard. The efficiency suite was well equipped, great value for the price The hotel has no pool, but laundry, fitness etc.and the A/C was one of the more noisy types, not a big problem in Cal though, but only 4 stars for that.It is definitely great for a longer stay.More</t>
   </si>
   <si>
-    <t>d3vilkitten</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r128679877-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>128679877</t>
+  </si>
+  <si>
+    <t>04/26/2012</t>
+  </si>
+  <si>
+    <t>Good place for extend stay</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel twice (Jan 2010 to Sep 2010 &amp; Oct 2011 to Nov 2011) and stay a total period of 10 months for business purposes. This is the good place for extended stay in the area as It has a pretty isolated neighborhood area with no pool or spa. The BBQ pit is available on first serve basis. 3 storeys hotel with a slow moving elevator. If you have your own transport, parking spaces are readily available. Gas stations are available and are about half a mile away.
+Internet is slow but they are fixing this. The wireless network is finally available and worked very well which was a bonus.
+The hotel provides a large room with a kitchenette space, two elec burners, microwave, and a large fridge/freezer with pots, pans etc. Weekly room clean only, but weekly schedule can be changed when requested. Rooms present clean and in good working order. The normal customer seems to be longer term stayers - people from the surrounding businesses. it was awesome that it was attached to the laundry room so you can workout while you do a load of laundry, for free! Since the laundry service is free, scheduling of laundry is a must!!! The staff are very friendly and helpful.
+You need your own transport to get to any place. Its about 2 miles drive to The District where you can get all your groceries and...I have stayed in this hotel twice (Jan 2010 to Sep 2010 &amp; Oct 2011 to Nov 2011) and stay a total period of 10 months for business purposes. This is the good place for extended stay in the area as It has a pretty isolated neighborhood area with no pool or spa. The BBQ pit is available on first serve basis. 3 storeys hotel with a slow moving elevator. If you have your own transport, parking spaces are readily available. Gas stations are available and are about half a mile away.Internet is slow but they are fixing this. The wireless network is finally available and worked very well which was a bonus.The hotel provides a large room with a kitchenette space, two elec burners, microwave, and a large fridge/freezer with pots, pans etc. Weekly room clean only, but weekly schedule can be changed when requested. Rooms present clean and in good working order. The normal customer seems to be longer term stayers - people from the surrounding businesses. it was awesome that it was attached to the laundry room so you can workout while you do a load of laundry, for free! Since the laundry service is free, scheduling of laundry is a must!!! The staff are very friendly and helpful.You need your own transport to get to any place. Its about 2 miles drive to The District where you can get all your groceries and also various eateries. If you prefer asian food, Millikan Drive is 2 blocks away from The District.Overall a good value stop for longer stay customers!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel twice (Jan 2010 to Sep 2010 &amp; Oct 2011 to Nov 2011) and stay a total period of 10 months for business purposes. This is the good place for extended stay in the area as It has a pretty isolated neighborhood area with no pool or spa. The BBQ pit is available on first serve basis. 3 storeys hotel with a slow moving elevator. If you have your own transport, parking spaces are readily available. Gas stations are available and are about half a mile away.
+Internet is slow but they are fixing this. The wireless network is finally available and worked very well which was a bonus.
+The hotel provides a large room with a kitchenette space, two elec burners, microwave, and a large fridge/freezer with pots, pans etc. Weekly room clean only, but weekly schedule can be changed when requested. Rooms present clean and in good working order. The normal customer seems to be longer term stayers - people from the surrounding businesses. it was awesome that it was attached to the laundry room so you can workout while you do a load of laundry, for free! Since the laundry service is free, scheduling of laundry is a must!!! The staff are very friendly and helpful.
+You need your own transport to get to any place. Its about 2 miles drive to The District where you can get all your groceries and...I have stayed in this hotel twice (Jan 2010 to Sep 2010 &amp; Oct 2011 to Nov 2011) and stay a total period of 10 months for business purposes. This is the good place for extended stay in the area as It has a pretty isolated neighborhood area with no pool or spa. The BBQ pit is available on first serve basis. 3 storeys hotel with a slow moving elevator. If you have your own transport, parking spaces are readily available. Gas stations are available and are about half a mile away.Internet is slow but they are fixing this. The wireless network is finally available and worked very well which was a bonus.The hotel provides a large room with a kitchenette space, two elec burners, microwave, and a large fridge/freezer with pots, pans etc. Weekly room clean only, but weekly schedule can be changed when requested. Rooms present clean and in good working order. The normal customer seems to be longer term stayers - people from the surrounding businesses. it was awesome that it was attached to the laundry room so you can workout while you do a load of laundry, for free! Since the laundry service is free, scheduling of laundry is a must!!! The staff are very friendly and helpful.You need your own transport to get to any place. Its about 2 miles drive to The District where you can get all your groceries and also various eateries. If you prefer asian food, Millikan Drive is 2 blocks away from The District.Overall a good value stop for longer stay customers!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r127536077-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>127536077</t>
+  </si>
+  <si>
+    <t>04/09/2012</t>
+  </si>
+  <si>
+    <t>Decent hotel for price</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights for the first time at this hotel on a quick trip to southern Cali. The room looked modern, clean and well equipped, like it was recently renovated. The room has a nice set-up and the free wifi was great. I have no complaints other than that the hotel is located at a corner of 2 streets so traffic noise could be heard starting at 8 in the morning or maybe even earlier. It wasn't a problem for us since we were up early both days. The service was decent and efficient.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r122656826-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -1057,9 +1468,6 @@
     <t>December 2011</t>
   </si>
   <si>
-    <t>Anton G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r121188278-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1078,9 +1486,6 @@
     <t>December 2010</t>
   </si>
   <si>
-    <t>saleschick87</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r118463977-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1102,7 +1507,43 @@
     <t>I prefer to have the ability to cook my meals when I travel because I have food allergies and Candlewood properties give me that option.  I did get an upgraded room to a 1 bedroom suite so my sleeping area was separate from the sitting/kitchen area.  The property was clean and the staff was pleasant.  It is also only about a mile from a good shopping district with lots of restaurants if you prefer to eat out.  There is also a Whole Foods and Alberstons nearby.  It is minutes from John Wayne airport, which was pretty nice for my early morning flight. The do have an onsite exercise room and free use of washers and dryers which would come in quite handy for a longer trip.More</t>
   </si>
   <si>
-    <t>JulieJev</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r116891062-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>116891062</t>
+  </si>
+  <si>
+    <t>08/18/2011</t>
+  </si>
+  <si>
+    <t>Glad I was only there for one night</t>
+  </si>
+  <si>
+    <t>Hotel a short taxi ride from John Wayne airport but currently in the middle of a road junction which is undergoing major roadworks. The hotel doesn't offer breakfast however you can buy products form the onsite shop which can be cooked etc in your room. This hotel is really set up for long term stays which was not what I was looking for.Room itself was small which included a work table and kitchen area. The bathroom was not great.The internet was wireless and worked very which was a bonus.Not on my list to stay again.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r115861331-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>115861331</t>
+  </si>
+  <si>
+    <t>07/27/2011</t>
+  </si>
+  <si>
+    <t>Reliable and good long stay hotel</t>
+  </si>
+  <si>
+    <t>This is not a fancy hotel but its not expensive either.  The hotel provides a large room with a kitchenette space, two elec burners, microwave, and a large fridge/freezer with pots, pans etc.  Some one BR units are also avail. Small gym just adequate. Central food cupboard is ok. Staff are very friendly and go out of their way to help but there is no room service only a helpful reception staff. Weekly room clean only.  Rooms present clean and in good working order. They are replacing the old TV's with flat screens but mine was an old one  - still ok.  Its a little noisy between rooms at times, mostly on weekends.  The normal customer seems to be longer term stayers - people from the surrounding businesses. Free laundry facilities that are very well utilized. You need transport to get to any place - its pretty isolated at a neighborhood level. no pool or spa. Internet is slow but they are fixing this.  Overall a good value stop for longer stay customers!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>This is not a fancy hotel but its not expensive either.  The hotel provides a large room with a kitchenette space, two elec burners, microwave, and a large fridge/freezer with pots, pans etc.  Some one BR units are also avail. Small gym just adequate. Central food cupboard is ok. Staff are very friendly and go out of their way to help but there is no room service only a helpful reception staff. Weekly room clean only.  Rooms present clean and in good working order. They are replacing the old TV's with flat screens but mine was an old one  - still ok.  Its a little noisy between rooms at times, mostly on weekends.  The normal customer seems to be longer term stayers - people from the surrounding businesses. Free laundry facilities that are very well utilized. You need transport to get to any place - its pretty isolated at a neighborhood level. no pool or spa. Internet is slow but they are fixing this.  Overall a good value stop for longer stay customers!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r114996521-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -1120,12 +1561,6 @@
     <t>We had to find a local hotel that accepted pets since our house was being tented for termites and we were very pleasantly surprised wtih the Candlewood Suites. It was half the cost of the Residence Inn down the street but had all the same amentities except for breakfast, but for the price, who cares! It was very clean and though we did not use the weight room, we thought it was awesome that it was attached to the laundry room so you can workout while you do a load of laundry, for free!</t>
   </si>
   <si>
-    <t>July 2011</t>
-  </si>
-  <si>
-    <t>kitchi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r58949732-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1144,9 +1579,6 @@
     <t>September 2008</t>
   </si>
   <si>
-    <t>Nabita</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r14919240-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1165,7 +1597,49 @@
     <t>We spent 5 weeks here (my husband and our 1yr old son).  The sofa has some stain on it and I found a sock behind the tv cabinet.  They changed the sofa cushion cover on the same day.  As others indicated, this is extended stay so room cleaning is once a week which is not sufficient when you have a toddler.  We requested daily vacuum and they did it on altenate day.  Sometimes we borrowed vacuum from them at night but there's a night where it was unavailable. Rooms have a recliner, sofa bed, full sized refrigerator, microwave, 2 burner range, sink and dishwasher, big bathroom. Utensils, cookware and dishes are provided. There is a gym and free laundry too. Staffs are friendly and helpful except for one serious grumpy man who makes you feel uncomfortable asking for detergent or a vacuum.Downside: No breakfast, no pool, no daily housekeeping, no restaurant, no room service, need to ask for dish detergent or soap.  Coffee and pop corn only provided once when u checked in.  Not a walking distance to fast food restaurant and grocery store.More</t>
   </si>
   <si>
-    <t>Snugdad</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r12569868-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>12569868</t>
+  </si>
+  <si>
+    <t>01/13/2008</t>
+  </si>
+  <si>
+    <t>Nice Hotel - Beware of long distance  telephone charges</t>
+  </si>
+  <si>
+    <t>Stayed there for two weeks in October 2007. Nice spacious room...  friendly reception staff. If you know the area / have transport this is a convenient place  to stay.. if not... hope you  like walking / using Taxi cabs.Real lack of local information in room... i.e. nearest restaurant / family restaurant / convenience store. When I returned home I realised that I had been charged $108.95 for a twenty minute call to Ireland - talk about an utter rip off !!!!!  Hotel information pack utterly devoid of any reference to telephone rates  -  now I know why!GerryMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>JWASADOS, Hotel Management at Candlewood Suites Orange County/Airport, responded to this reviewResponded April 28, 2009</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2009</t>
+  </si>
+  <si>
+    <t>Stayed there for two weeks in October 2007. Nice spacious room...  friendly reception staff. If you know the area / have transport this is a convenient place  to stay.. if not... hope you  like walking / using Taxi cabs.Real lack of local information in room... i.e. nearest restaurant / family restaurant / convenience store. When I returned home I realised that I had been charged $108.95 for a twenty minute call to Ireland - talk about an utter rip off !!!!!  Hotel information pack utterly devoid of any reference to telephone rates  -  now I know why!GerryMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r11099253-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>11099253</t>
+  </si>
+  <si>
+    <t>11/27/2007</t>
+  </si>
+  <si>
+    <t>Good place to stay!</t>
+  </si>
+  <si>
+    <t>Thanksgiving brought us down to Orange County and the Candlewood Suites were the closest to our son's home. The rooms were spacious, the place was clean and well furnished. We spent 5 days there. We were treated well, and supplies were available when needed. It was quite quiet as it is off the main freeway. We'll be sure to go there on any return trips. There is no daily maid service but we saved money  using the kitchen for breakfasts which included a dishwasher for cleaning up. Replacement towels were available from the staff.  A great value, particularly for Orange County accommodations.</t>
+  </si>
+  <si>
+    <t>November 2007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r8211736-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -1184,9 +1658,6 @@
   </si>
   <si>
     <t>I spent 9 weeks here (May-June-July 07) on an extended business assignment.  The hotel was clean and quiet and was ideally located for my work.  As others indicated, this is extended stay so room cleaning is once a week.  Rooms have a full sized refrigerator, microwave, 2 burner range, sink and dishwasher.  Utensiles, cookware and dishes are provided.  There is a free laundry on site which is a real bonus for extended stay.  The drawbacks are there are no restaurants within a mile or two so if you're not cooking in the room it's a little drive.  Given the southern California climate the real shortcoming was not having a pool.  That would have made the weekends a little more enjoyable while away from home.  In all a very good value if your travel has you on an extended stay.More</t>
-  </si>
-  <si>
-    <t>sdlax</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d225491-r3841642-Candlewood_Suites_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -1717,47 +2188,43 @@
       <c r="A2" t="n">
         <v>41898</v>
       </c>
-      <c r="B2" t="n">
-        <v>160750</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1771,45 +2238,41 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41898</v>
       </c>
-      <c r="B3" t="n">
-        <v>3975</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -1828,54 +2291,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41898</v>
       </c>
-      <c r="B4" t="n">
-        <v>160751</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1886,126 +2345,110 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X4" t="s">
-        <v>70</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41898</v>
       </c>
-      <c r="B5" t="n">
-        <v>160752</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41898</v>
       </c>
-      <c r="B6" t="n">
-        <v>160753</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2017,70 +2460,66 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41898</v>
       </c>
-      <c r="B7" t="n">
-        <v>160754</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2088,123 +2527,121 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41898</v>
       </c>
-      <c r="B8" t="n">
-        <v>160755</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41898</v>
       </c>
-      <c r="B9" t="n">
-        <v>2639</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -2216,63 +2653,57 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41898</v>
       </c>
-      <c r="B10" t="n">
-        <v>4365</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -2283,54 +2714,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41898</v>
       </c>
-      <c r="B11" t="n">
-        <v>160756</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2341,125 +2768,127 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41898</v>
       </c>
-      <c r="B12" t="n">
-        <v>160757</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41898</v>
       </c>
-      <c r="B13" t="n">
-        <v>2575</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -2470,121 +2899,117 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41898</v>
       </c>
-      <c r="B14" t="n">
-        <v>9637</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>133</v>
+      </c>
+      <c r="X14" t="s">
+        <v>134</v>
+      </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41898</v>
       </c>
-      <c r="B15" t="n">
-        <v>160758</v>
-      </c>
-      <c r="C15" t="s">
-        <v>150</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2598,124 +3023,122 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41898</v>
       </c>
-      <c r="B16" t="n">
-        <v>160759</v>
-      </c>
-      <c r="C16" t="s">
-        <v>157</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>164</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41898</v>
       </c>
-      <c r="B17" t="n">
-        <v>160760</v>
-      </c>
-      <c r="C17" t="s">
-        <v>165</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2726,480 +3149,430 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41898</v>
       </c>
-      <c r="B18" t="n">
-        <v>160761</v>
-      </c>
-      <c r="C18" t="s">
-        <v>171</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>162</v>
+      </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41898</v>
       </c>
-      <c r="B19" t="n">
-        <v>160762</v>
-      </c>
-      <c r="C19" t="s">
-        <v>179</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>185</v>
-      </c>
-      <c r="X19" t="s">
-        <v>186</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41898</v>
       </c>
-      <c r="B20" t="n">
-        <v>160763</v>
-      </c>
-      <c r="C20" t="s">
-        <v>188</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>195</v>
-      </c>
-      <c r="X20" t="s">
-        <v>196</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41898</v>
       </c>
-      <c r="B21" t="n">
-        <v>160764</v>
-      </c>
-      <c r="C21" t="s">
-        <v>198</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+      <c r="N21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41898</v>
       </c>
-      <c r="B22" t="n">
-        <v>61400</v>
-      </c>
-      <c r="C22" t="s">
-        <v>204</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>211</v>
-      </c>
-      <c r="X22" t="s">
-        <v>212</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41898</v>
       </c>
-      <c r="B23" t="n">
-        <v>148524</v>
-      </c>
-      <c r="C23" t="s">
-        <v>214</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="J23" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>222</v>
-      </c>
-      <c r="X23" t="s">
-        <v>223</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41898</v>
       </c>
-      <c r="B24" t="n">
-        <v>2674</v>
-      </c>
-      <c r="C24" t="s">
-        <v>225</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3207,61 +3580,59 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41898</v>
       </c>
-      <c r="B25" t="n">
-        <v>160765</v>
-      </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="O25" t="s">
-        <v>111</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -3272,208 +3643,174 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41898</v>
       </c>
-      <c r="B26" t="n">
-        <v>43579</v>
-      </c>
-      <c r="C26" t="s">
-        <v>238</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41898</v>
       </c>
-      <c r="B27" t="n">
-        <v>160766</v>
-      </c>
-      <c r="C27" t="s">
-        <v>246</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41898</v>
       </c>
-      <c r="B28" t="n">
-        <v>160767</v>
-      </c>
-      <c r="C28" t="s">
-        <v>252</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="J28" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>87</v>
+      </c>
       <c r="P28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="n">
         <v>3</v>
       </c>
-      <c r="R28" t="n">
-        <v>2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3481,61 +3818,53 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41898</v>
       </c>
-      <c r="B29" t="n">
-        <v>160768</v>
-      </c>
-      <c r="C29" t="s">
-        <v>259</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="J29" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="O29" t="s">
-        <v>111</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
         <v>5</v>
       </c>
@@ -3544,82 +3873,70 @@
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>266</v>
-      </c>
-      <c r="X29" t="s">
-        <v>267</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41898</v>
       </c>
-      <c r="B30" t="n">
-        <v>160769</v>
-      </c>
-      <c r="C30" t="s">
-        <v>269</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="J30" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="K30" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="O30" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
         <v>5</v>
       </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3627,70 +3944,60 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41898</v>
       </c>
-      <c r="B31" t="n">
-        <v>160770</v>
-      </c>
-      <c r="C31" t="s">
-        <v>277</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="K31" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
         <v>5</v>
       </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3698,141 +4005,129 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41898</v>
       </c>
-      <c r="B32" t="n">
-        <v>160771</v>
-      </c>
-      <c r="C32" t="s">
-        <v>285</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="J32" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="K32" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
         <v>3</v>
       </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
         <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>248</v>
+      </c>
+      <c r="X32" t="s">
+        <v>249</v>
+      </c>
       <c r="Y32" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41898</v>
       </c>
-      <c r="B33" t="n">
-        <v>160772</v>
-      </c>
-      <c r="C33" t="s">
-        <v>293</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="J33" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3840,66 +4135,58 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41898</v>
       </c>
-      <c r="B34" t="n">
-        <v>160773</v>
-      </c>
-      <c r="C34" t="s">
-        <v>300</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="J34" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -3908,131 +4195,123 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>262</v>
+      </c>
+      <c r="X34" t="s">
+        <v>263</v>
+      </c>
       <c r="Y34" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41898</v>
       </c>
-      <c r="B35" t="n">
-        <v>41289</v>
-      </c>
-      <c r="C35" t="s">
-        <v>308</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="J35" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="O35" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>271</v>
+      </c>
+      <c r="X35" t="s">
+        <v>272</v>
+      </c>
       <c r="Y35" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41898</v>
       </c>
-      <c r="B36" t="n">
-        <v>3631</v>
-      </c>
-      <c r="C36" t="s">
-        <v>315</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="J36" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="K36" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="L36" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
-      <c r="N36" t="s">
-        <v>321</v>
-      </c>
-      <c r="O36" t="s">
-        <v>111</v>
-      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
         <v>4</v>
@@ -4041,7 +4320,7 @@
         <v>4</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -4053,141 +4332,127 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41898</v>
       </c>
-      <c r="B37" t="n">
-        <v>160774</v>
-      </c>
-      <c r="C37" t="s">
-        <v>322</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="J37" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="K37" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
         <v>4</v>
       </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>285</v>
+      </c>
+      <c r="X37" t="s">
+        <v>286</v>
+      </c>
       <c r="Y37" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41898</v>
       </c>
-      <c r="B38" t="n">
-        <v>130057</v>
-      </c>
-      <c r="C38" t="s">
-        <v>330</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="J38" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="K38" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="O38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4195,70 +4460,62 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41898</v>
       </c>
-      <c r="B39" t="n">
-        <v>160775</v>
-      </c>
-      <c r="C39" t="s">
-        <v>337</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="J39" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="K39" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
         <v>4</v>
       </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4266,137 +4523,127 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41898</v>
       </c>
-      <c r="B40" t="n">
-        <v>160776</v>
-      </c>
-      <c r="C40" t="s">
-        <v>344</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="J40" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="K40" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>307</v>
+      </c>
+      <c r="X40" t="s">
+        <v>308</v>
+      </c>
       <c r="Y40" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41898</v>
       </c>
-      <c r="B41" t="n">
-        <v>160777</v>
-      </c>
-      <c r="C41" t="s">
-        <v>352</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="J41" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="O41" t="s">
-        <v>68</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
       <c r="S41" t="n">
         <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4404,70 +4651,60 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41898</v>
       </c>
-      <c r="B42" t="n">
-        <v>160778</v>
-      </c>
-      <c r="C42" t="s">
-        <v>359</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="J42" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4475,192 +4712,194 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41898</v>
       </c>
-      <c r="B43" t="n">
-        <v>160779</v>
-      </c>
-      <c r="C43" t="s">
-        <v>366</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="J43" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="K43" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>326</v>
+      </c>
+      <c r="O43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41898</v>
       </c>
-      <c r="B44" t="n">
-        <v>160780</v>
-      </c>
-      <c r="C44" t="s">
-        <v>373</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="J44" t="s">
-        <v>376</v>
-      </c>
-      <c r="K44" t="s">
-        <v>51</v>
-      </c>
-      <c r="L44" t="s">
-        <v>377</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
-      <c r="Y44" t="s">
-        <v>379</v>
-      </c>
+      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41898</v>
       </c>
-      <c r="B45" t="n">
-        <v>160781</v>
-      </c>
-      <c r="C45" t="s">
-        <v>380</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="J45" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="K45" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
+      <c r="N45" t="s">
+        <v>336</v>
+      </c>
+      <c r="O45" t="s">
+        <v>65</v>
+      </c>
       <c r="P45" t="n">
         <v>5</v>
       </c>
       <c r="Q45" t="n">
         <v>4</v>
       </c>
-      <c r="R45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
       <c r="S45" t="n">
         <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4668,7 +4907,2062 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>338</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>339</v>
+      </c>
+      <c r="J46" t="s">
+        <v>340</v>
+      </c>
+      <c r="K46" t="s">
+        <v>341</v>
+      </c>
+      <c r="L46" t="s">
+        <v>342</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>336</v>
+      </c>
+      <c r="O46" t="s">
+        <v>65</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>343</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>344</v>
+      </c>
+      <c r="J47" t="s">
+        <v>345</v>
+      </c>
+      <c r="K47" t="s">
+        <v>346</v>
+      </c>
+      <c r="L47" t="s">
+        <v>347</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>349</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>350</v>
+      </c>
+      <c r="J48" t="s">
+        <v>351</v>
+      </c>
+      <c r="K48" t="s">
+        <v>352</v>
+      </c>
+      <c r="L48" t="s">
+        <v>353</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>354</v>
+      </c>
+      <c r="O48" t="s">
+        <v>65</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>355</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J49" t="s">
+        <v>357</v>
+      </c>
+      <c r="K49" t="s">
+        <v>358</v>
+      </c>
+      <c r="L49" t="s">
+        <v>359</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>360</v>
+      </c>
+      <c r="O49" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>361</v>
+      </c>
+      <c r="X49" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>364</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>365</v>
+      </c>
+      <c r="J50" t="s">
+        <v>366</v>
+      </c>
+      <c r="K50" t="s">
+        <v>367</v>
+      </c>
+      <c r="L50" t="s">
+        <v>368</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>360</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>369</v>
+      </c>
+      <c r="X50" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>372</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>373</v>
+      </c>
+      <c r="J51" t="s">
+        <v>374</v>
+      </c>
+      <c r="K51" t="s">
+        <v>375</v>
+      </c>
+      <c r="L51" t="s">
+        <v>376</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>377</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>379</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>380</v>
+      </c>
+      <c r="J52" t="s">
+        <v>381</v>
+      </c>
+      <c r="K52" t="s">
+        <v>382</v>
+      </c>
+      <c r="L52" t="s">
+        <v>383</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>384</v>
+      </c>
+      <c r="O52" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
         <v>386</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>387</v>
+      </c>
+      <c r="J53" t="s">
+        <v>388</v>
+      </c>
+      <c r="K53" t="s">
+        <v>389</v>
+      </c>
+      <c r="L53" t="s">
+        <v>390</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>391</v>
+      </c>
+      <c r="O53" t="s">
+        <v>65</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>392</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>393</v>
+      </c>
+      <c r="J54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K54" t="s">
+        <v>395</v>
+      </c>
+      <c r="L54" t="s">
+        <v>396</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>397</v>
+      </c>
+      <c r="O54" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>399</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>400</v>
+      </c>
+      <c r="J55" t="s">
+        <v>401</v>
+      </c>
+      <c r="K55" t="s">
+        <v>402</v>
+      </c>
+      <c r="L55" t="s">
+        <v>403</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>397</v>
+      </c>
+      <c r="O55" t="s">
+        <v>65</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>406</v>
+      </c>
+      <c r="J56" t="s">
+        <v>407</v>
+      </c>
+      <c r="K56" t="s">
+        <v>408</v>
+      </c>
+      <c r="L56" t="s">
+        <v>409</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>410</v>
+      </c>
+      <c r="O56" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>411</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>412</v>
+      </c>
+      <c r="J57" t="s">
+        <v>413</v>
+      </c>
+      <c r="K57" t="s">
+        <v>414</v>
+      </c>
+      <c r="L57" t="s">
+        <v>415</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>416</v>
+      </c>
+      <c r="O57" t="s">
+        <v>65</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>418</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>419</v>
+      </c>
+      <c r="J58" t="s">
+        <v>420</v>
+      </c>
+      <c r="K58" t="s">
+        <v>421</v>
+      </c>
+      <c r="L58" t="s">
+        <v>422</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>423</v>
+      </c>
+      <c r="O58" t="s">
+        <v>65</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>424</v>
+      </c>
+      <c r="X58" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>427</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>428</v>
+      </c>
+      <c r="J59" t="s">
+        <v>420</v>
+      </c>
+      <c r="K59" t="s">
+        <v>429</v>
+      </c>
+      <c r="L59" t="s">
+        <v>430</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>431</v>
+      </c>
+      <c r="O59" t="s">
+        <v>77</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>432</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>433</v>
+      </c>
+      <c r="J60" t="s">
+        <v>434</v>
+      </c>
+      <c r="K60" t="s">
+        <v>435</v>
+      </c>
+      <c r="L60" t="s">
+        <v>436</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>437</v>
+      </c>
+      <c r="O60" t="s">
+        <v>77</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>438</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>439</v>
+      </c>
+      <c r="J61" t="s">
+        <v>440</v>
+      </c>
+      <c r="K61" t="s">
+        <v>441</v>
+      </c>
+      <c r="L61" t="s">
+        <v>442</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>443</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>444</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>445</v>
+      </c>
+      <c r="J62" t="s">
+        <v>446</v>
+      </c>
+      <c r="K62" t="s">
+        <v>447</v>
+      </c>
+      <c r="L62" t="s">
+        <v>448</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>449</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>451</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>452</v>
+      </c>
+      <c r="J63" t="s">
+        <v>453</v>
+      </c>
+      <c r="K63" t="s">
+        <v>454</v>
+      </c>
+      <c r="L63" t="s">
+        <v>455</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>456</v>
+      </c>
+      <c r="O63" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>458</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>459</v>
+      </c>
+      <c r="J64" t="s">
+        <v>460</v>
+      </c>
+      <c r="K64" t="s">
+        <v>461</v>
+      </c>
+      <c r="L64" t="s">
+        <v>462</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>463</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>464</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>465</v>
+      </c>
+      <c r="J65" t="s">
+        <v>466</v>
+      </c>
+      <c r="K65" t="s">
+        <v>467</v>
+      </c>
+      <c r="L65" t="s">
+        <v>468</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>469</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>470</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>471</v>
+      </c>
+      <c r="J66" t="s">
+        <v>472</v>
+      </c>
+      <c r="K66" t="s">
+        <v>473</v>
+      </c>
+      <c r="L66" t="s">
+        <v>474</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>475</v>
+      </c>
+      <c r="O66" t="s">
+        <v>65</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>476</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>477</v>
+      </c>
+      <c r="J67" t="s">
+        <v>478</v>
+      </c>
+      <c r="K67" t="s">
+        <v>479</v>
+      </c>
+      <c r="L67" t="s">
+        <v>480</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>481</v>
+      </c>
+      <c r="O67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>483</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>484</v>
+      </c>
+      <c r="J68" t="s">
+        <v>485</v>
+      </c>
+      <c r="K68" t="s">
+        <v>486</v>
+      </c>
+      <c r="L68" t="s">
+        <v>487</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>488</v>
+      </c>
+      <c r="O68" t="s">
+        <v>65</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>489</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>490</v>
+      </c>
+      <c r="J69" t="s">
+        <v>491</v>
+      </c>
+      <c r="K69" t="s">
+        <v>492</v>
+      </c>
+      <c r="L69" t="s">
+        <v>493</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>494</v>
+      </c>
+      <c r="O69" t="s">
+        <v>65</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>496</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>497</v>
+      </c>
+      <c r="J70" t="s">
+        <v>498</v>
+      </c>
+      <c r="K70" t="s">
+        <v>499</v>
+      </c>
+      <c r="L70" t="s">
+        <v>500</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>488</v>
+      </c>
+      <c r="O70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>501</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>502</v>
+      </c>
+      <c r="J71" t="s">
+        <v>503</v>
+      </c>
+      <c r="K71" t="s">
+        <v>504</v>
+      </c>
+      <c r="L71" t="s">
+        <v>505</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>506</v>
+      </c>
+      <c r="O71" t="s">
+        <v>65</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>507</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>508</v>
+      </c>
+      <c r="J72" t="s">
+        <v>509</v>
+      </c>
+      <c r="K72" t="s">
+        <v>510</v>
+      </c>
+      <c r="L72" t="s">
+        <v>511</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>513</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>514</v>
+      </c>
+      <c r="J73" t="s">
+        <v>515</v>
+      </c>
+      <c r="K73" t="s">
+        <v>516</v>
+      </c>
+      <c r="L73" t="s">
+        <v>517</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>518</v>
+      </c>
+      <c r="O73" t="s">
+        <v>65</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>519</v>
+      </c>
+      <c r="X73" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>522</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>523</v>
+      </c>
+      <c r="J74" t="s">
+        <v>524</v>
+      </c>
+      <c r="K74" t="s">
+        <v>525</v>
+      </c>
+      <c r="L74" t="s">
+        <v>526</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>527</v>
+      </c>
+      <c r="O74" t="s">
+        <v>65</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>528</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>529</v>
+      </c>
+      <c r="J75" t="s">
+        <v>530</v>
+      </c>
+      <c r="K75" t="s">
+        <v>69</v>
+      </c>
+      <c r="L75" t="s">
+        <v>531</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>532</v>
+      </c>
+      <c r="O75" t="s">
+        <v>65</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>41898</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>534</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>535</v>
+      </c>
+      <c r="J76" t="s">
+        <v>536</v>
+      </c>
+      <c r="K76" t="s">
+        <v>537</v>
+      </c>
+      <c r="L76" t="s">
+        <v>538</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
